--- a/02-PCB/BOM/DAWA7.xlsx
+++ b/02-PCB/BOM/DAWA7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dood\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apnet365-my.sharepoint.com/personal/epi_apnet_fr/Documents/#PERSO/Electronique/DAWA7/02-PCB/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DB58B0-9C7A-4342-9AD3-AE2112E7A705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B2DB58B0-9C7A-4342-9AD3-AE2112E7A705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB3ED8AF-5B50-4F9E-B03F-93C2DD93616D}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{17F05A60-46D3-4D2E-834E-A99E92D6DBEA}"/>
+    <workbookView xWindow="42120" yWindow="2220" windowWidth="28800" windowHeight="15555" xr2:uid="{17F05A60-46D3-4D2E-834E-A99E92D6DBEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>TFT EVE3 Screen</t>
   </si>
   <si>
-    <t>NEO-M8N-0</t>
-  </si>
-  <si>
     <t>u-blox</t>
   </si>
   <si>
@@ -727,6 +724,9 @@
   </si>
   <si>
     <t>Ex</t>
+  </si>
+  <si>
+    <t>NEO-M8Q-0</t>
   </si>
 </sst>
 </file>
@@ -810,6 +810,1227 @@
 </styleSheet>
 </file>
 
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="rtdsrv.a5f6670efdfa48fc9523bb88deb0e139">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>c224a2ec-6b3f-4549-9893-f2ddcc6c1cd7</stp>
+        <tr r="I60" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>52cef026-2e74-40ee-9fad-4265f6f0c465</stp>
+        <tr r="K47" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>0105d058-a414-4e6b-90b7-7d93693f4942</stp>
+        <tr r="K34" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>154e1c52-2f9f-40bd-b1bd-5b39f35a07bb</stp>
+        <tr r="J39" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>cddd2ff4-d4f7-4cb5-94e3-673e9a9f4db9</stp>
+        <tr r="J54" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d79d0df7-12fb-46dc-b772-a5984613c0b0</stp>
+        <tr r="K41" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>384c7a98-dbc6-435e-b987-43d575cd9cd7</stp>
+        <tr r="I33" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>7c3a2dce-b467-499f-957f-2b7ad00e4c92</stp>
+        <tr r="K43" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>c7a5ea34-7e6b-4951-8ba9-dbc1e527bc88</stp>
+        <tr r="K57" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ce3784e7-49df-4fab-816d-6f001a72a3cd</stp>
+        <tr r="I69" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>3d7f7e60-c7da-4ebf-a068-d233170e62ab</stp>
+        <tr r="K37" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>f1bd714b-3d59-4698-969c-46e01aa6ccfa</stp>
+        <tr r="I6" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>bc27c7f4-ba14-4cad-b2e7-f63effa55ac8</stp>
+        <tr r="I66" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e6a49980-9ad1-4d8a-a1af-b40112c1b699</stp>
+        <tr r="K65" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>04053819-8848-4090-be70-96c32595e6fe</stp>
+        <tr r="I7" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>4b624a08-ed2c-4d90-b1bf-da5c659eeff4</stp>
+        <tr r="K55" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>774d4bc1-f508-4ef2-81f9-90a0af76a7c7</stp>
+        <tr r="K24" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>f4597fa1-dea8-43e7-b5f2-b195ec47d3a3</stp>
+        <tr r="J16" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a052896c-da48-4006-af4d-09012c5e6253</stp>
+        <tr r="K25" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>4bac5f89-ccb7-49b6-afe4-f1b94438f6a5</stp>
+        <tr r="K46" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>445d0c58-31e4-477d-aa49-03f06e1dfea0</stp>
+        <tr r="I29" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>917a9af1-f531-430c-847b-a7f151dfdca9</stp>
+        <tr r="J35" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e4d48c6b-39e4-4702-a709-1dbd219444aa</stp>
+        <tr r="I63" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ca25333c-99c0-4a9b-b4d6-80d2bc3d596f</stp>
+        <tr r="J53" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>1c31eeea-90dd-4c0e-9631-9a56f684b97f</stp>
+        <tr r="I38" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>f73bf3b6-70da-4747-b53f-852147626556</stp>
+        <tr r="J68" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>4ea5c3bf-c9c0-487a-8512-5f590479874f</stp>
+        <tr r="K35" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a91264b0-6378-4599-9223-a09e1bc66b51</stp>
+        <tr r="J67" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>bfd2b789-7fc7-40f5-8a7d-daa501e52491</stp>
+        <tr r="J44" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>9b693000-c677-4c84-b3b7-ce4bd01992c1</stp>
+        <tr r="J20" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>aca594a2-b06c-4216-b3bd-c53280610d79</stp>
+        <tr r="J2" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d0cb2d3a-eaf9-4614-9e2a-ca6da0dd2fdc</stp>
+        <tr r="K38" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>5505dd7a-f02d-4ba6-992c-8be3ed6a75b6</stp>
+        <tr r="J27" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>47860cdd-fe41-4332-8064-b539a29d9047</stp>
+        <tr r="K26" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>2e77fd0a-235b-41ab-99eb-1dc39e56740a</stp>
+        <tr r="I71" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>828bc04c-64a3-4f2b-b9fa-11b85188a19f</stp>
+        <tr r="K39" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>56adf947-bcba-48f9-b544-dd725d59ba9f</stp>
+        <tr r="J70" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d8457d85-e4c4-4fa8-84e8-95689df55402</stp>
+        <tr r="J37" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>9bd2d05d-796c-4caa-8dfa-f3761dc91451</stp>
+        <tr r="J6" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d25f38ff-9636-40ec-a1cd-b2f5fe9e3e65</stp>
+        <tr r="I19" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>38818129-a1ba-4b9e-8091-c4f0e4535555</stp>
+        <tr r="K4" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>624901f3-11c8-48fa-b121-e3deeac53281</stp>
+        <tr r="K36" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ab53e569-51a3-431f-848a-b1515968a6c9</stp>
+        <tr r="K30" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e5c0f4e7-3d7f-4a35-a4b2-0b9725b5b08a</stp>
+        <tr r="K8" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>adb18d72-f6cb-4ee4-b853-74794c3db207</stp>
+        <tr r="I21" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>c8386f00-2389-48f7-99d5-c52a790bc1b0</stp>
+        <tr r="I34" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>5c8ddc72-fddf-485d-bb47-6e9ffa096084</stp>
+        <tr r="K21" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>23e2217d-fc89-4300-b5f3-e2b087fa1452</stp>
+        <tr r="K58" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>6b7fb190-ba83-4ae5-991f-e84056958893</stp>
+        <tr r="K13" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>9b7807e8-df5a-4df5-a719-0c33bd85f1e1</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>71c1f76e-ba92-4448-bb5b-5ca178ed815e</stp>
+        <tr r="J55" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ea7e9700-a762-4713-856b-e008d42ed54b</stp>
+        <tr r="K49" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>3545d075-46a0-4840-bb18-b5038de0fb5f</stp>
+        <tr r="I8" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a4aef086-e56b-4cc6-a637-cf0ff91297b9</stp>
+        <tr r="K70" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>76a8786c-d2c4-4963-bae8-bdff4d12603e</stp>
+        <tr r="K67" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>0ca02262-52ed-4609-8d06-ab2ce36ec013</stp>
+        <tr r="I10" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>bed7ae5f-111c-43d9-a3ce-0b03d6a81339</stp>
+        <tr r="I28" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>8b3a65ec-87bd-4244-b280-78b08d7133a4</stp>
+        <tr r="J69" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>c82b74e0-ee24-4636-91f8-f5f7822f921e</stp>
+        <tr r="K52" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>19a066ce-1e0a-4202-8e3a-e63a5ac73d94</stp>
+        <tr r="K53" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e4e75860-3cf1-4ae6-acca-7f2551476093</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>3a7e0d42-67a6-4109-b31d-bd6657218ff2</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e045b629-0762-425a-b482-b5b8daad0544</stp>
+        <tr r="I50" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>73b0dff6-a4e4-4c58-b075-a710b689547c</stp>
+        <tr r="J7" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>1fe5cfbc-dc30-4d14-b67a-3c81932f6979</stp>
+        <tr r="I35" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>74eadbba-34ee-48b9-8e69-e4e8111eba91</stp>
+        <tr r="K20" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>cd27d18e-d4be-4007-bf43-796096c3330a</stp>
+        <tr r="J12" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a8fe3ea1-936b-4500-ac99-2af1c1ad63bb</stp>
+        <tr r="I11" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>3cc2f6cb-211f-4c95-9198-a90bae7809ab</stp>
+        <tr r="J26" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b9d75771-2ad4-4458-a8c5-bd429444684b</stp>
+        <tr r="J19" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e6dde31b-27f6-45e3-b6e0-4b3225df6968</stp>
+        <tr r="K50" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>96ac4b59-6db7-489f-b63d-f839d34be3df</stp>
+        <tr r="I9" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>175af827-2303-445b-ace5-b0236100f49c</stp>
+        <tr r="K31" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>542c1087-80c2-4290-a07a-9c9c86308a40</stp>
+        <tr r="K9" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>1b053695-ffa5-4ffc-9bda-ae948fefb990</stp>
+        <tr r="K15" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>c92a6f47-5340-4ed2-bd7c-2a4c90d32653</stp>
+        <tr r="I41" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>39b2f6de-91e3-4e3f-bbfd-e7a4296ba023</stp>
+        <tr r="J9" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>28c0149e-6b40-49ff-a165-d22e46942f01</stp>
+        <tr r="K51" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>3316c49f-bf4e-4e0a-bb16-4e65d9c06a19</stp>
+        <tr r="J50" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>40a6954d-4836-4851-9182-6f12d787ba64</stp>
+        <tr r="I18" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>46d74428-cbea-44ca-a2dc-8e8f1842612e</stp>
+        <tr r="I53" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>8d82b5d7-a8b8-4e88-b6ec-955acc364239</stp>
+        <tr r="I62" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>820c9732-a719-40c8-b821-fff4ced86d7d</stp>
+        <tr r="J47" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>76b7f577-9de2-46b3-9824-f85229cdb3b7</stp>
+        <tr r="I27" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>8e4c9ee1-5167-4133-bf77-db1759cffc24</stp>
+        <tr r="I48" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>f4af1806-14a8-48f1-b1ca-5c0fcc9a2f98</stp>
+        <tr r="I39" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>887d65c6-54bd-44fd-a645-edab16e1a3e7</stp>
+        <tr r="J59" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e5fc4428-c711-4192-a029-58127a84c271</stp>
+        <tr r="J71" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>81b52009-7a64-4642-af87-6c689034ffd7</stp>
+        <tr r="J41" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>c20bd790-8855-4757-8bfb-511632a9cffd</stp>
+        <tr r="J38" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>018a3263-4f5e-4928-8e43-fb6a62c2abee</stp>
+        <tr r="I61" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>31d1e83f-2d63-405f-98ac-6f806ca660b0</stp>
+        <tr r="I70" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>33b68ef9-e3c6-4fcc-9a25-e9dfa6993d63</stp>
+        <tr r="I58" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>fb187edb-e6e9-41d9-98ba-de2cdbbc14bf</stp>
+        <tr r="J36" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>8d6bf9b1-48c6-48a0-bb29-97a293adbeb9</stp>
+        <tr r="J58" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d3cf526b-aedb-461e-84c0-be3d2982902d</stp>
+        <tr r="J21" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d3e3761a-0a8b-4974-939a-16378f3e1b17</stp>
+        <tr r="I16" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>65aea985-2e6a-41fb-8b56-4dfeb0d2d7dc</stp>
+        <tr r="K32" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b9bca3ca-e501-4e15-94fb-fecaeb759005</stp>
+        <tr r="J43" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>00dae579-b79a-441c-a7ca-e7a91800dcf6</stp>
+        <tr r="K45" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>1896d0dd-6299-450c-b756-ca8880f4524a</stp>
+        <tr r="K56" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>5917db1c-6810-40e0-933f-30247aa8b43d</stp>
+        <tr r="I59" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>181ba875-512e-4330-a285-b84c38ccb60f</stp>
+        <tr r="I49" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>5f319407-4e63-4f20-b8ca-922d05e2a99d</stp>
+        <tr r="J30" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d8f0b8a4-fe5d-4d3b-bc11-ea1da51bf5a2</stp>
+        <tr r="I40" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>1fab2baa-ceae-4925-9e13-554cd3def10d</stp>
+        <tr r="I68" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>1e49b68a-7dc8-4cdb-a31c-53fc6da13453</stp>
+        <tr r="K10" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>de2b0c55-615e-40b6-aff9-6bbb37945a6b</stp>
+        <tr r="J25" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>96fc862e-f21e-47ba-bb45-c22df3dfcfec</stp>
+        <tr r="J60" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>6089e462-6e9f-40fb-b777-2fca1ed40007</stp>
+        <tr r="J28" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>4e9a3642-4f9c-435c-b501-8aa0bb122cb5</stp>
+        <tr r="K60" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>fb137ae9-fb73-42d8-9fa7-a0884a39f9c1</stp>
+        <tr r="K7" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>1569bb44-0393-46a0-b54e-0ec07c9981c3</stp>
+        <tr r="J61" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>3786175d-f387-4de7-be23-f75f7d323df9</stp>
+        <tr r="I15" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a4b0c3c2-69e1-45e3-83df-9af4818dac03</stp>
+        <tr r="J29" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e4d93270-6616-4106-957f-77559c38b037</stp>
+        <tr r="K27" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ae7c4e8c-0cc3-460d-9edb-ef8ae5365625</stp>
+        <tr r="I45" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>badfe06b-b86d-455e-a1e3-324da165fec7</stp>
+        <tr r="K6" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a1048fe9-8dd9-46e9-b209-dde9e1464f8e</stp>
+        <tr r="I24" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>01715879-e5df-43a4-aa16-f935b37c66a9</stp>
+        <tr r="K18" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>6c552b58-312d-41f0-b739-0af7468ce335</stp>
+        <tr r="I44" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>9a96a60e-62f7-4f1d-adf8-4bfc7534da8f</stp>
+        <tr r="K12" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>bf1936a1-e9ff-4012-a7ff-8e803f50c402</stp>
+        <tr r="I12" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>9749e819-c3d8-4721-a56f-d309793f27c6</stp>
+        <tr r="I56" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>0e7a9d04-0107-4703-91fc-1d0a3b7614de</stp>
+        <tr r="I26" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>c232fd13-5754-4c1d-a0af-c80ae8e93145</stp>
+        <tr r="J66" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>fef80af2-578c-4ca0-ae76-1ff3b20025f5</stp>
+        <tr r="I4" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>267a3004-3499-4cc2-a7f2-9303fa74ad00</stp>
+        <tr r="J5" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>98c5513f-f73f-4534-ae7d-f67e98a31542</stp>
+        <tr r="J49" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>2f15a0c7-7d92-4b4e-89cb-358d0c899f3b</stp>
+        <tr r="I22" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>57337000-ce88-458b-b764-c03831796f27</stp>
+        <tr r="K29" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>256457c8-cae7-488c-b5f1-c08c3b27cf04</stp>
+        <tr r="J52" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>9107ddb0-79d2-4172-9362-12754588d129</stp>
+        <tr r="J64" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>22ddeeb3-957a-4c3b-93d1-b91ebdb56e52</stp>
+        <tr r="I30" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a9d4e585-113f-4056-8bdb-a153d72129cb</stp>
+        <tr r="J56" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>4e93af7a-5f82-47df-84b8-b57dd5962b38</stp>
+        <tr r="K54" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>736bce7d-2b1f-4f24-9142-7b22ad48b3a6</stp>
+        <tr r="I31" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>5cd0b217-c5b7-47dd-a4d4-f9e9c9e4cc6c</stp>
+        <tr r="I20" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ebeda6e4-b39f-4712-ae5b-121e2632ad1c</stp>
+        <tr r="K19" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b518b90e-5b2b-4c47-8a4d-6858e7289da2</stp>
+        <tr r="I42" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>2311cf0b-143a-45ef-a99d-f225d9727a2c</stp>
+        <tr r="J51" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>01f7c970-8b75-48be-b9b6-45fe6f72852d</stp>
+        <tr r="K62" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>92531e46-2f1a-4c57-94bb-967864b7dc9b</stp>
+        <tr r="I54" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>9cf861e5-45dc-473d-bf39-1ffa0525e347</stp>
+        <tr r="K22" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d86b2858-f7df-4c0e-95f8-7d2f6245fa33</stp>
+        <tr r="I17" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>42b59257-477a-4954-903a-dd2677347291</stp>
+        <tr r="K66" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>66d2813f-3c6f-461b-bd51-ac877a1b5317</stp>
+        <tr r="I2" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>dd0c6c5d-ed41-478c-9c6d-10c3f1bc4d9f</stp>
+        <tr r="K44" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b2cd32e3-a9df-449f-8c59-6b24ade86f93</stp>
+        <tr r="K68" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a2867bd8-bbcc-4ce5-99f6-ab4b7fd37752</stp>
+        <tr r="J18" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>c2e9f505-eb0f-42c0-9eac-85ca1e29a068</stp>
+        <tr r="J15" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>0cf15a4a-3ab6-4b5b-a9f3-8219cdfdd0a0</stp>
+        <tr r="J40" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a8362b9a-5641-4646-9c9b-846967f6104b</stp>
+        <tr r="K33" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>065509f3-95d8-41a5-a67d-457757168eeb</stp>
+        <tr r="J45" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>eea37d7b-aa01-427b-9057-c8703e2b79bd</stp>
+        <tr r="I37" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>8ea11d67-1e24-45d3-ab54-624b43a28d7d</stp>
+        <tr r="K69" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>070f827b-9103-4a2b-90ac-479c3c53b829</stp>
+        <tr r="J48" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ce1bdaef-71c5-4b2d-8e4f-7e2061d77d93</stp>
+        <tr r="K11" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>70ffc57e-6942-4ba8-af3d-2fc3379b25df</stp>
+        <tr r="J22" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a2a5bd30-a850-4ad0-8fca-89dbfe358de3</stp>
+        <tr r="K59" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e34bd8b7-3daf-499f-bf34-8e9ff59d1ae6</stp>
+        <tr r="J10" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>89eda2f7-f1bb-4702-9d41-4bba8fd213dc</stp>
+        <tr r="J46" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>7b769aaa-84ea-4ad1-a625-47550bd931a6</stp>
+        <tr r="J34" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>68d24bcb-bb19-4760-8d6a-427bc0d60ad8</stp>
+        <tr r="J8" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>c87db523-3bd8-4ac1-8dc0-4dd674a3baba</stp>
+        <tr r="K64" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>682312cf-7975-41e3-802b-db579580363a</stp>
+        <tr r="K40" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>eedc61b4-bd70-436d-b5f0-e88177e77f14</stp>
+        <tr r="K17" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>6dfe782b-ddf5-4dad-8e1a-4d9461330ef5</stp>
+        <tr r="K48" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>fc5941e5-6ef7-4e20-8626-c6b07511d87d</stp>
+        <tr r="K28" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>57dd94f5-ec30-4639-a9e2-ec1397d3a3b5</stp>
+        <tr r="I46" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>987ebf71-b718-4792-a908-7fea1c291f3a</stp>
+        <tr r="I25" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>790851cd-61b1-474b-94bd-02e2bc4181a0</stp>
+        <tr r="I55" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>210c7b91-6342-4656-849e-a27d9d19cba8</stp>
+        <tr r="J65" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>fce32655-883e-49e0-a667-4b0d13c46d3d</stp>
+        <tr r="K71" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>be2bc80f-0f97-4390-a871-cd1d6bbaa2ff</stp>
+        <tr r="J42" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e818f763-f4bc-4ce1-9797-8351e82d74da</stp>
+        <tr r="K5" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>f41f4edc-86c2-4bc0-b277-c5834002a58f</stp>
+        <tr r="I52" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>9fcb9a17-2956-471c-b980-be2edc70c651</stp>
+        <tr r="I43" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>673f4a69-93cb-4fe6-a2f2-332ee4921faa</stp>
+        <tr r="I36" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e1a60d4c-7102-47bd-a919-88ce3a38d115</stp>
+        <tr r="J31" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>87bd56cd-0f05-4e79-8b6c-b0899c8e5286</stp>
+        <tr r="I32" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>03f2bfcb-3db6-4106-8823-268b889f830e</stp>
+        <tr r="I47" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>f8ac8f44-693c-4b6c-92e2-9135e70770b8</stp>
+        <tr r="J57" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>7f77690e-4d8c-425d-b3a4-ce33ac6a108b</stp>
+        <tr r="J13" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>2a624803-f98d-491a-bf61-6cbf3753ad45</stp>
+        <tr r="J24" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>8374b8e9-01ec-4bbd-8fd2-b27c72d7fb5b</stp>
+        <tr r="J33" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>1150184c-2ca5-473c-a517-fd82adaaa052</stp>
+        <tr r="J63" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d39a3e77-97bc-48d7-8e6a-31cbf7fd81b3</stp>
+        <tr r="J11" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>8ed6de22-b786-4375-9b86-e66e452ee590</stp>
+        <tr r="K61" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>62300854-aca1-47ff-9a5a-b6410ab3c68d</stp>
+        <tr r="K42" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>0d282b37-63a3-4e8c-8389-a1daa48a74a8</stp>
+        <tr r="J62" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>98c367bb-f053-4e1a-8733-45d6e17a4edc</stp>
+        <tr r="I13" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b2be8664-71e3-464d-a647-778a27a30902</stp>
+        <tr r="I5" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d3c36a86-b6fd-48c0-b0a7-217ab94c63a5</stp>
+        <tr r="I65" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>dbec2437-dcc7-4a3d-9ec4-392074566b87</stp>
+        <tr r="J4" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>03482d79-65c8-49c1-a278-d462d9083052</stp>
+        <tr r="K2" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>7cbea457-c57d-48af-b9f6-e852cb9ce4eb</stp>
+        <tr r="I51" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ec71d6a2-93a6-47c7-85ff-ef7b3eee2d4e</stp>
+        <tr r="I67" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>8485cb23-b79f-412d-a052-02a779394430</stp>
+        <tr r="I57" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>33b7d783-95de-40ff-81f7-1a53a7ffe1ec</stp>
+        <tr r="I64" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>4ba82e97-1236-4259-b810-ec87a29924d1</stp>
+        <tr r="K16" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>08c9563a-29f6-43bc-8ef4-9db0757783c1</stp>
+        <tr r="K63" s="2"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{5AB35890-875F-4994-8DBE-C04531C5290C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="49">
@@ -877,17 +2098,17 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{CCFC929E-B39A-48D6-BE96-B41E68A839FF}" uniqueName="1" name="Qty" queryTableFieldId="1"/>
     <tableColumn id="7" xr3:uid="{68353285-99FB-44E8-8322-EFCA75E04A39}" uniqueName="7" name="Stock Perso" queryTableFieldId="7"/>
-    <tableColumn id="47" xr3:uid="{F6F41C92-2B50-4209-955D-21FC47A866E4}" uniqueName="47" name="Ex" queryTableFieldId="48" dataDxfId="0">
+    <tableColumn id="47" xr3:uid="{F6F41C92-2B50-4209-955D-21FC47A866E4}" uniqueName="47" name="Ex" queryTableFieldId="48" dataDxfId="8">
       <calculatedColumnFormula>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E15FA103-4E3A-461A-8EB8-16DA10D73E50}" uniqueName="2" name="Line Item" queryTableFieldId="2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{DE90E88C-24C4-4946-B9A8-D827877FC31C}" uniqueName="3" name="Manufacturer" queryTableFieldId="3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{E60D471E-3EB6-4E58-BDB3-E05192EE2CED}" uniqueName="4" name="MPN" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{B4BEC668-A24F-4FBC-AC64-A069A6549221}" uniqueName="6" name="Schematic Reference" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{F066A7B5-1190-4040-8A7E-72DD90240E2D}" uniqueName="8" name="Description" queryTableFieldId="8" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{CA5992C0-63DF-4E75-883F-5E431C10A4C2}" uniqueName="23" name="Unit price Mouser" queryTableFieldId="23" dataDxfId="3"/>
-    <tableColumn id="27" xr3:uid="{00BBF5EC-0940-4FAE-9B88-14330D2FDD39}" uniqueName="27" name="Stock Mouser" queryTableFieldId="27" dataDxfId="2"/>
-    <tableColumn id="35" xr3:uid="{EE58CF2C-80C2-48CD-87B8-E3D14DCD49BF}" uniqueName="35" name="Datasheet" queryTableFieldId="35" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E15FA103-4E3A-461A-8EB8-16DA10D73E50}" uniqueName="2" name="Line Item" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{DE90E88C-24C4-4946-B9A8-D827877FC31C}" uniqueName="3" name="Manufacturer" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E60D471E-3EB6-4E58-BDB3-E05192EE2CED}" uniqueName="4" name="MPN" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{B4BEC668-A24F-4FBC-AC64-A069A6549221}" uniqueName="6" name="Schematic Reference" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{F066A7B5-1190-4040-8A7E-72DD90240E2D}" uniqueName="8" name="Description" queryTableFieldId="8" dataDxfId="3"/>
+    <tableColumn id="23" xr3:uid="{CA5992C0-63DF-4E75-883F-5E431C10A4C2}" uniqueName="23" name="Unit price Mouser" queryTableFieldId="23" dataDxfId="2"/>
+    <tableColumn id="27" xr3:uid="{00BBF5EC-0940-4FAE-9B88-14330D2FDD39}" uniqueName="27" name="Stock Mouser" queryTableFieldId="27" dataDxfId="1"/>
+    <tableColumn id="35" xr3:uid="{EE58CF2C-80C2-48CD-87B8-E3D14DCD49BF}" uniqueName="35" name="Datasheet" queryTableFieldId="35" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1193,7 +2414,7 @@
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,10 +2437,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1237,13 +2458,13 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1258,31 +2479,31 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" cm="1">
+      <c r="I2" s="1" t="str" cm="1">
         <f t="array" ref="I2">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>3.53</v>
-      </c>
-      <c r="J2" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J2" s="1" t="str" cm="1">
         <f t="array" ref="J2">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>4087</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K2" s="1" t="str" cm="1">
         <f t="array" ref="K2">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/ATSAMD21G18A-MFT-Microchip-datasheet-141002421.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1297,31 +2518,31 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="1" cm="1">
+      <c r="I3" s="1" t="str" cm="1">
         <f t="array" ref="I3">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J3" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J3" s="1" t="str" cm="1">
         <f t="array" ref="J3">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>166</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K3" s="1" t="str" cm="1">
         <f t="array" ref="K3">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>https://octopart.com/click/track?ai=988&amp;ct=datasheets&amp;sig=059d76c&amp;at=physicalpart&amp;sid=370&amp;ppid=12194623&amp;hlid=30121080</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1336,31 +2557,31 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" s="1" cm="1">
+      <c r="I4" s="1" t="str" cm="1">
         <f t="array" ref="I4">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.38</v>
-      </c>
-      <c r="J4" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J4" s="1" t="str" cm="1">
         <f t="array" ref="J4">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>10926</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K4" s="1" t="str" cm="1">
         <f t="array" ref="K4">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/MF-NSMF050-2-Bourns-datasheet-62292265.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1375,31 +2596,31 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I5" s="1" cm="1">
+      <c r="I5" s="1" t="str" cm="1">
         <f t="array" ref="I5">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.16</v>
-      </c>
-      <c r="J5" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J5" s="1" t="str" cm="1">
         <f t="array" ref="J5">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>6740</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K5" s="1" t="str" cm="1">
         <f t="array" ref="K5">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/CRCW0603510RJNEAHP-Vishay-datasheet-8703221.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1414,31 +2635,31 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" s="1" cm="1">
+        <v>106</v>
+      </c>
+      <c r="I6" s="1" t="str" cm="1">
         <f t="array" ref="I6">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.68</v>
-      </c>
-      <c r="J6" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J6" s="1" t="str" cm="1">
         <f t="array" ref="J6">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>1584</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K6" s="1" t="str" cm="1">
         <f t="array" ref="K6">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/TAJT105K016RNJ-AVX-datasheet-50868559.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1453,31 +2674,31 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I7" s="1" cm="1">
+      <c r="I7" s="1" t="str" cm="1">
         <f t="array" ref="I7">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.21</v>
-      </c>
-      <c r="J7" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J7" s="1" t="str" cm="1">
         <f t="array" ref="J7">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>55516</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K7" s="1" t="str" cm="1">
         <f t="array" ref="K7">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/MMBZ27VALT3G-ON-Semiconductor-datasheet-153450.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1492,31 +2713,31 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I8" s="1" cm="1">
+        <v>126</v>
+      </c>
+      <c r="I8" s="1" t="str" cm="1">
         <f t="array" ref="I8">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J8" s="1" t="str" cm="1">
         <f t="array" ref="J8">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>1122728</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K8" s="1" t="str" cm="1">
         <f t="array" ref="K8">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/CRCW06034K70FKEAHP-Vishay-datasheet-8359436.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1531,31 +2752,31 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I9" s="1" cm="1">
+      <c r="I9" s="1" t="str" cm="1">
         <f t="array" ref="I9">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.13</v>
-      </c>
-      <c r="J9" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J9" s="1" t="str" cm="1">
         <f t="array" ref="J9">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>440691</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K9" s="1" t="str" cm="1">
         <f t="array" ref="K9">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/MMBT2222ALT1G-ON-Semiconductor-datasheet-610557.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1584,17 +2805,17 @@
       <c r="H10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="1" cm="1">
+      <c r="I10" s="1" t="str" cm="1">
         <f t="array" ref="I10">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>45.9</v>
-      </c>
-      <c r="J10" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J10" s="1" t="str" cm="1">
         <f t="array" ref="J10">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>9</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K10" s="1" t="str" cm="1">
         <f t="array" ref="K10">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/RVT43ALBNWR00-Riverdi-datasheet-140586661.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1609,31 +2830,31 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="1" cm="1">
+      <c r="I11" s="1" t="str" cm="1">
         <f t="array" ref="I11">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>1.96</v>
-      </c>
-      <c r="J11" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J11" s="1" t="str" cm="1">
         <f t="array" ref="J11">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>12197</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K11" s="1" t="str" cm="1">
         <f t="array" ref="K11">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>https://octopart.com/click/track?ai=988&amp;ct=datasheets&amp;sig=0bc9be0&amp;at=physicalpart&amp;sid=370&amp;ppid=408950&amp;hlid=30167354</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1648,31 +2869,31 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="1" cm="1">
+      <c r="I12" s="1" t="str" cm="1">
         <f t="array" ref="I12">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>1.33</v>
-      </c>
-      <c r="J12" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J12" s="1" t="str" cm="1">
         <f t="array" ref="J12">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>2303</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K12" s="1" t="str" cm="1">
         <f t="array" ref="K12">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/43045-0600-Molex-datasheet-10220947.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1687,31 +2908,31 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="1" cm="1">
+        <v>126</v>
+      </c>
+      <c r="I13" s="1" t="str" cm="1">
         <f t="array" ref="I13">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J13" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J13" s="1" t="str" cm="1">
         <f t="array" ref="J13">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>1107651</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K13" s="1" t="str" cm="1">
         <f t="array" ref="K13">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/CRCW060310K0FKEAHP-Vishay-datasheet-8703221.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1729,7 +2950,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>6</v>
@@ -1741,13 +2962,13 @@
         <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1762,31 +2983,31 @@
         <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="1" cm="1">
+      <c r="I15" s="1" t="str" cm="1">
         <f t="array" ref="I15">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.65</v>
-      </c>
-      <c r="J15" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J15" s="1" t="str" cm="1">
         <f t="array" ref="J15">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K15" s="1" t="str" cm="1">
         <f t="array" ref="K15">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/TAJB106K025RNJ-AVX-datasheet-50868559.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1801,31 +3022,31 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" s="1" cm="1">
+      <c r="I16" s="1" t="str" cm="1">
         <f t="array" ref="I16">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.39</v>
-      </c>
-      <c r="J16" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J16" s="1" t="str" cm="1">
         <f t="array" ref="J16">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>6686</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K16" s="1" t="str" cm="1">
         <f t="array" ref="K16">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/MBR120ESFT3G-ON-Semiconductor-datasheet-37521367.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1840,31 +3061,31 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="I17" s="1" t="str" cm="1">
         <f t="array" ref="I17">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>ERROR: Query did not provide a result. Please widen your search criteria.</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="J17" s="1" t="str" cm="1">
         <f t="array" ref="J17">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>ERROR: Query did not provide a result. Please widen your search criteria.</v>
+        <v>ERROR: Unauthorized Access. Please email contact@octopart.com for assistance.</v>
       </c>
       <c r="K17" s="1" t="str" cm="1">
         <f t="array" ref="K17">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/NEO-M8N-0-u-blox-datasheet-100446454.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1879,31 +3100,31 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="1" cm="1">
+      <c r="I18" s="1" t="str" cm="1">
         <f t="array" ref="I18">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.98</v>
-      </c>
-      <c r="J18" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J18" s="1" t="str" cm="1">
         <f t="array" ref="J18">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K18" s="1" t="str" cm="1">
         <f t="array" ref="K18">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/MCP2562T-E-MF-Microchip-datasheet-38190264.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1918,31 +3139,31 @@
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="1" cm="1">
+      <c r="I19" s="1" t="str" cm="1">
         <f t="array" ref="I19">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="J19" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J19" s="1" t="str" cm="1">
         <f t="array" ref="J19">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>2115</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K19" s="1" t="str" cm="1">
         <f t="array" ref="K19">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>https://octopart.com/click/track?ai=988&amp;ct=datasheets&amp;sig=05242f7&amp;at=physicalpart&amp;sid=370&amp;ppid=24813265&amp;hlid=29974232</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1957,31 +3178,31 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="1" cm="1">
+      <c r="I20" s="1" t="str" cm="1">
         <f t="array" ref="I20">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.78</v>
-      </c>
-      <c r="J20" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J20" s="1" t="str" cm="1">
         <f t="array" ref="J20">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>5176</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K20" s="1" t="str" cm="1">
         <f t="array" ref="K20">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/SRR0604-100ML-Bourns-datasheet-27378680.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1996,31 +3217,31 @@
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="1" cm="1">
+      <c r="I21" s="1" t="str" cm="1">
         <f t="array" ref="I21">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.84</v>
-      </c>
-      <c r="J21" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J21" s="1" t="str" cm="1">
         <f t="array" ref="J21">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>1646</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K21" s="1" t="str" cm="1">
         <f t="array" ref="K21">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>https://octopart.com/click/track?ai=988&amp;ct=datasheets&amp;sig=0daf4be&amp;at=physicalpart&amp;sid=370&amp;ppid=24815860&amp;hlid=30018743</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2035,31 +3256,31 @@
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I22" s="1" cm="1">
+      <c r="I22" s="1" t="str" cm="1">
         <f t="array" ref="I22">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.41</v>
-      </c>
-      <c r="J22" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J22" s="1" t="str" cm="1">
         <f t="array" ref="J22">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>46130</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K22" s="1" t="str" cm="1">
         <f t="array" ref="K22">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>https://octopart.com/click/track?ai=988&amp;ct=datasheets&amp;sig=05ecab8&amp;at=physicalpart&amp;sid=370&amp;ppid=422947&amp;hlid=30104109</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2077,7 +3298,7 @@
         <v>7</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
@@ -2087,13 +3308,13 @@
         <v>7</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2108,31 +3329,31 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I24" s="1" cm="1">
+      <c r="I24" s="1" t="str" cm="1">
         <f t="array" ref="I24">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.51</v>
-      </c>
-      <c r="J24" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J24" s="1" t="str" cm="1">
         <f t="array" ref="J24">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>39023</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K24" s="1" t="str" cm="1">
         <f t="array" ref="K24">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/PRTR5V0U2X%2C215-Nexperia-datasheet-87582154.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2147,31 +3368,31 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I25" s="1" cm="1">
+      <c r="I25" s="1" t="str" cm="1">
         <f t="array" ref="I25">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J25" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J25" s="1" t="str" cm="1">
         <f t="array" ref="J25">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>3426</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K25" s="1" t="str" cm="1">
         <f t="array" ref="K25">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/74AHC1G125GW%2C125-Nexperia-datasheet-87841683.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2186,31 +3407,31 @@
         <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="1" cm="1">
+      <c r="I26" s="1" t="str" cm="1">
         <f t="array" ref="I26">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>5.31</v>
-      </c>
-      <c r="J26" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J26" s="1" t="str" cm="1">
         <f t="array" ref="J26">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>7559</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K26" s="1" t="str" cm="1">
         <f t="array" ref="K26">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>https://octopart.com/click/track?ai=988&amp;ct=datasheets&amp;sig=0e65735&amp;at=physicalpart&amp;sid=370&amp;ppid=22475007&amp;hlid=29909694</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2225,31 +3446,31 @@
         <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I27" s="1" cm="1">
+      <c r="I27" s="1" t="str" cm="1">
         <f t="array" ref="I27">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.36</v>
-      </c>
-      <c r="J27" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J27" s="1" t="str" cm="1">
         <f t="array" ref="J27">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K27" s="1" t="str" cm="1">
         <f t="array" ref="K27">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/TSX-3225-16.0000MF18X-AC3-Epson-datasheet-61114919.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2264,31 +3485,31 @@
         <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I28" s="1" cm="1">
+      <c r="I28" s="1" t="str" cm="1">
         <f t="array" ref="I28">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.45</v>
-      </c>
-      <c r="J28" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J28" s="1" t="str" cm="1">
         <f t="array" ref="J28">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>105785</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K28" s="1" t="str" cm="1">
         <f t="array" ref="K28">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/PESD1CAN%2C215-Nexperia-datasheet-87581735.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2303,31 +3524,31 @@
         <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="I29" s="1" t="str" cm="1">
         <f t="array" ref="I29">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>ERROR: Query did not provide a result. Please widen your search criteria.</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="J29" s="1" t="str" cm="1">
         <f t="array" ref="J29">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>ERROR: Query did not provide a result. Please widen your search criteria.</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K29" s="1" t="str" cm="1">
         <f t="array" ref="K29">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/CD1206-S01575-Bourns-datasheet-11551246.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2342,31 +3563,31 @@
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="1" cm="1">
+        <v>117</v>
+      </c>
+      <c r="I30" s="1" t="str" cm="1">
         <f t="array" ref="I30">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.11</v>
-      </c>
-      <c r="J30" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J30" s="1" t="str" cm="1">
         <f t="array" ref="J30">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>37636</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K30" s="1" t="str" cm="1">
         <f t="array" ref="K30">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/C0603C561J5GACTU-Kemet-datasheet-5314449.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2381,31 +3602,31 @@
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="1" cm="1">
+      <c r="I31" s="1" t="str" cm="1">
         <f t="array" ref="I31">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="J31" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J31" s="1" t="str" cm="1">
         <f t="array" ref="J31">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>6246</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K31" s="1" t="str" cm="1">
         <f t="array" ref="K31">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/DM3AT-SF-PEJM5-Hirose-datasheet-12521013.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2420,31 +3641,31 @@
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" s="1" cm="1">
+      <c r="I32" s="1" t="str" cm="1">
         <f t="array" ref="I32">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>1.7</v>
-      </c>
-      <c r="J32" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J32" s="1" t="str" cm="1">
         <f t="array" ref="J32">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0</v>
+        <v>ERROR: Unauthorized Access. Please email contact@octopart.com for assistance.</v>
       </c>
       <c r="K32" s="1" t="str" cm="1">
         <f t="array" ref="K32">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/CON-SMA-EDGE-S-RF-Solutions-datasheet-138897461.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2459,31 +3680,31 @@
         <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" s="1" cm="1">
+      <c r="I33" s="1" t="str" cm="1">
         <f t="array" ref="I33">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>1.26</v>
-      </c>
-      <c r="J33" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J33" s="1" t="str" cm="1">
         <f t="array" ref="J33">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>10021</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K33" s="1" t="str" cm="1">
         <f t="array" ref="K33">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/MCP23017-E/SS-Microchip-datasheet-166052.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2498,31 +3719,31 @@
         <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I34" s="1" cm="1">
+      <c r="I34" s="1" t="str" cm="1">
         <f t="array" ref="I34">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.39</v>
-      </c>
-      <c r="J34" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J34" s="1" t="str" cm="1">
         <f t="array" ref="J34">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>602</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K34" s="1" t="str" cm="1">
         <f t="array" ref="K34">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>ERROR: Datasheet url not found. Please try expanding your search</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2537,31 +3758,31 @@
         <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I35" s="1" cm="1">
+      <c r="I35" s="1" t="str" cm="1">
         <f t="array" ref="I35">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.5</v>
-      </c>
-      <c r="J35" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J35" s="1" t="str" cm="1">
         <f t="array" ref="J35">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>12443</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K35" s="1" t="str" cm="1">
         <f t="array" ref="K35">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/3000TR-Keystone-datasheet-15715878.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2576,31 +3797,31 @@
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I36" s="1" cm="1">
+      <c r="I36" s="1" t="str" cm="1">
         <f t="array" ref="I36">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J36" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J36" s="1" t="str" cm="1">
         <f t="array" ref="J36">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>12527</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K36" s="1" t="str" cm="1">
         <f t="array" ref="K36">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/MH2029-300Y-Bourns-datasheet-41234649.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2615,31 +3836,31 @@
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="H37" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I37" s="1" cm="1">
+        <v>126</v>
+      </c>
+      <c r="I37" s="1" t="str" cm="1">
         <f t="array" ref="I37">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J37" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J37" s="1" t="str" cm="1">
         <f t="array" ref="J37">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>1473559</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K37" s="1" t="str" cm="1">
         <f t="array" ref="K37">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/CRCW06031K00FKEAHP-Vishay-datasheet-8703221.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2654,31 +3875,31 @@
         <v>13</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I38" s="1" cm="1">
+      <c r="I38" s="1" t="str" cm="1">
         <f t="array" ref="I38">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.23</v>
-      </c>
-      <c r="J38" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J38" s="1" t="str" cm="1">
         <f t="array" ref="J38">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K38" s="1" t="str" cm="1">
         <f t="array" ref="K38">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/24AA02E48T-I/OT-Microchip-datasheet-10028278.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2693,31 +3914,31 @@
         <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="1" cm="1">
+      <c r="I39" s="1" t="str" cm="1">
         <f t="array" ref="I39">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.5</v>
-      </c>
-      <c r="J39" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J39" s="1" t="str" cm="1">
         <f t="array" ref="J39">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>1432</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K39" s="1" t="str" cm="1">
         <f t="array" ref="K39">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/SKPMAPE010-ALPS-datasheet-10980046.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2732,31 +3953,31 @@
         <v>15</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I40" s="1" cm="1">
+      <c r="I40" s="1" t="str" cm="1">
         <f t="array" ref="I40">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.47</v>
-      </c>
-      <c r="J40" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J40" s="1" t="str" cm="1">
         <f t="array" ref="J40">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K40" s="1" t="str" cm="1">
         <f t="array" ref="K40">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/FDN340P-ON-Semiconductor-datasheet-31668.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2771,31 +3992,31 @@
         <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="H41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I41" s="1" cm="1">
+        <v>92</v>
+      </c>
+      <c r="I41" s="1" t="str" cm="1">
         <f t="array" ref="I41">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.31</v>
-      </c>
-      <c r="J41" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J41" s="1" t="str" cm="1">
         <f t="array" ref="J41">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>15435</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K41" s="1" t="str" cm="1">
         <f t="array" ref="K41">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/MF-MSMF050-2-Bourns-datasheet-10413427.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2810,31 +4031,31 @@
         <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I42" s="1" cm="1">
+      <c r="I42" s="1" t="str" cm="1">
         <f t="array" ref="I42">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.24</v>
-      </c>
-      <c r="J42" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J42" s="1" t="str" cm="1">
         <f t="array" ref="J42">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>17131</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K42" s="1" t="str" cm="1">
         <f t="array" ref="K42">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/C0805C106K4PAC7210-KEMET-datasheet-149535359.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2849,31 +4070,31 @@
         <v>16</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I43" s="1" cm="1">
+        <v>126</v>
+      </c>
+      <c r="I43" s="1" t="str" cm="1">
         <f t="array" ref="I43">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J43" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J43" s="1" t="str" cm="1">
         <f t="array" ref="J43">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>413127</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K43" s="1" t="str" cm="1">
         <f t="array" ref="K43">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/CRCW0603100KFKEAC-Vishay-datasheet-100063072.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2888,31 +4109,31 @@
         <v>17</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I44" s="1" cm="1">
+      <c r="I44" s="1" t="str" cm="1">
         <f t="array" ref="I44">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.82</v>
-      </c>
-      <c r="J44" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J44" s="1" t="str" cm="1">
         <f t="array" ref="J44">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>4679</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K44" s="1" t="str" cm="1">
         <f t="array" ref="K44">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>https://octopart.com/click/track?ai=988&amp;ct=datasheets&amp;sig=0327f93&amp;at=physicalpart&amp;sid=370&amp;ppid=713395&amp;hlid=30057807</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2927,31 +4148,31 @@
         <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I45" s="1" cm="1">
+      <c r="I45" s="1" t="str" cm="1">
         <f t="array" ref="I45">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.22</v>
-      </c>
-      <c r="J45" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J45" s="1" t="str" cm="1">
         <f t="array" ref="J45">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>4628</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K45" s="1" t="str" cm="1">
         <f t="array" ref="K45">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/LQG18HN27NJ00D-Murata-datasheet-140712950.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2966,31 +4187,31 @@
         <v>20</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I46" s="1" cm="1">
+      <c r="I46" s="1" t="str" cm="1">
         <f t="array" ref="I46">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>2.79</v>
-      </c>
-      <c r="J46" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J46" s="1" t="str" cm="1">
         <f t="array" ref="J46">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>5105</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K46" s="1" t="str" cm="1">
         <f t="array" ref="K46">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>https://octopart.com/click/track?ai=988&amp;ct=datasheets&amp;sig=072f1d3&amp;at=physicalpart&amp;sid=370&amp;ppid=664229&amp;hlid=30057578</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3005,31 +4226,31 @@
         <v>20</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I47" s="1" cm="1">
+      <c r="I47" s="1" t="str" cm="1">
         <f t="array" ref="I47">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>1.55</v>
-      </c>
-      <c r="J47" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J47" s="1" t="str" cm="1">
         <f t="array" ref="J47">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>1994</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K47" s="1" t="str" cm="1">
         <f t="array" ref="K47">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/687120149022-W%C3%BCrth-Elektronik-datasheet-149525326.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3044,31 +4265,31 @@
         <v>20</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" s="1" cm="1">
+      <c r="I48" s="1" t="str" cm="1">
         <f t="array" ref="I48">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>1.23</v>
-      </c>
-      <c r="J48" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J48" s="1" t="str" cm="1">
         <f t="array" ref="J48">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>4399</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K48" s="1" t="str" cm="1">
         <f t="array" ref="K48">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/M50-3500542-Harwin-datasheet-8815713.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3083,31 +4304,31 @@
         <v>20</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I49" s="1" cm="1">
+      <c r="I49" s="1" t="str" cm="1">
         <f t="array" ref="I49">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.9</v>
-      </c>
-      <c r="J49" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J49" s="1" t="str" cm="1">
         <f t="array" ref="J49">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>4806</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K49" s="1" t="str" cm="1">
         <f t="array" ref="K49">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/MC33269ST-3.3T3G-ON-Semiconductor-datasheet-5315594.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3122,31 +4343,31 @@
         <v>20</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I50" s="1" cm="1">
+      <c r="I50" s="1" t="str" cm="1">
         <f t="array" ref="I50">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.83</v>
-      </c>
-      <c r="J50" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J50" s="1" t="str" cm="1">
         <f t="array" ref="J50">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>34408</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K50" s="1" t="str" cm="1">
         <f t="array" ref="K50">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/105017-0001-Molex-datasheet-14876665.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3161,31 +4382,31 @@
         <v>20</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="H51" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I51" s="1" cm="1">
+        <v>126</v>
+      </c>
+      <c r="I51" s="1" t="str" cm="1">
         <f t="array" ref="I51">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J51" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J51" s="1" t="str" cm="1">
         <f t="array" ref="J51">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>246074</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K51" s="1" t="str" cm="1">
         <f t="array" ref="K51">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/CRCW0603100RFKEAC-Vishay-datasheet-100063072.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3200,31 +4421,31 @@
         <v>25</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="H52" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I52" s="1" cm="1">
+        <v>117</v>
+      </c>
+      <c r="I52" s="1" t="str" cm="1">
         <f t="array" ref="I52">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J52" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J52" s="1" t="str" cm="1">
         <f t="array" ref="J52">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>13095</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K52" s="1" t="str" cm="1">
         <f t="array" ref="K52">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/C0603C220K4GACTU-KEMET-datasheet-149521963.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3239,31 +4460,31 @@
         <v>31</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="H53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I53" s="1" cm="1">
+        <v>117</v>
+      </c>
+      <c r="I53" s="1" t="str" cm="1">
         <f t="array" ref="I53">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J53" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J53" s="1" t="str" cm="1">
         <f t="array" ref="J53">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>3199875</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K53" s="1" t="str" cm="1">
         <f t="array" ref="K53">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/C0603C104M4RAC7411-KEMET-datasheet-37550250.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3278,31 +4499,31 @@
         <v>33</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="H54" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I54" s="1" cm="1">
+        <v>117</v>
+      </c>
+      <c r="I54" s="1" t="str" cm="1">
         <f t="array" ref="I54">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J54" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J54" s="1" t="str" cm="1">
         <f t="array" ref="J54">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>128971</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K54" s="1" t="str" cm="1">
         <f t="array" ref="K54">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/C0603C103K3RAC7411-KEMET-datasheet-84169754.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3317,31 +4538,31 @@
         <v>45</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I55" s="1" cm="1">
+      <c r="I55" s="1" t="str" cm="1">
         <f t="array" ref="I55">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.18</v>
-      </c>
-      <c r="J55" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J55" s="1" t="str" cm="1">
         <f t="array" ref="J55">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>30061</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K55" s="1" t="str" cm="1">
         <f t="array" ref="K55">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/150060VS55040-W%C3%BCrth-Elektronik-datasheet-140170128.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3356,31 +4577,31 @@
         <v>50</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I56" s="1" cm="1">
+      <c r="I56" s="1" t="str" cm="1">
         <f t="array" ref="I56">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>2.14</v>
-      </c>
-      <c r="J56" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J56" s="1" t="str" cm="1">
         <f t="array" ref="J56">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>528</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K56" s="1" t="str" cm="1">
         <f t="array" ref="K56">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/43202-8816-Molex-datasheet-13800813.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3395,31 +4616,31 @@
         <v>50</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I57" s="1" cm="1">
+        <v>117</v>
+      </c>
+      <c r="I57" s="1" t="str" cm="1">
         <f t="array" ref="I57">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J57" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J57" s="1" t="str" cm="1">
         <f t="array" ref="J57">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>12246</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K57" s="1" t="str" cm="1">
         <f t="array" ref="K57">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/C0603C105K4RAC7411-KEMET-datasheet-84169754.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3434,31 +4655,31 @@
         <v>50</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="H58" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I58" s="1" cm="1">
+        <v>102</v>
+      </c>
+      <c r="I58" s="1" t="str" cm="1">
         <f t="array" ref="I58">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J58" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J58" s="1" t="str" cm="1">
         <f t="array" ref="J58">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>18331</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K58" s="1" t="str" cm="1">
         <f t="array" ref="K58">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/742C083101JP-CTS-Components-datasheet-12510906.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3473,31 +4694,31 @@
         <v>50</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="H59" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I59" s="1" cm="1">
+        <v>126</v>
+      </c>
+      <c r="I59" s="1" t="str" cm="1">
         <f t="array" ref="I59">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J59" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J59" s="1" t="str" cm="1">
         <f t="array" ref="J59">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>63687</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K59" s="1" t="str" cm="1">
         <f t="array" ref="K59">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/CRCW06031K80FKEA-Vishay-datasheet-62317933.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3512,31 +4733,31 @@
         <v>100</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I60" s="1" cm="1">
+      <c r="I60" s="1" t="str" cm="1">
         <f t="array" ref="I60">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J60" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J60" s="1" t="str" cm="1">
         <f t="array" ref="J60">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>27840</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K60" s="1" t="str" cm="1">
         <f t="array" ref="K60">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/742C083511JP-CTS-Components-datasheet-12510906.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3551,31 +4772,31 @@
         <v>100</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="H61" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I61" s="1" cm="1">
+        <v>117</v>
+      </c>
+      <c r="I61" s="1" t="str" cm="1">
         <f t="array" ref="I61">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.16</v>
-      </c>
-      <c r="J61" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J61" s="1" t="str" cm="1">
         <f t="array" ref="J61">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>3417</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K61" s="1" t="str" cm="1">
         <f t="array" ref="K61">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/C0603C475K9PAC7411-KEMET-datasheet-84169754.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -3590,31 +4811,31 @@
         <v>100</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I62" s="1" cm="1">
+        <v>117</v>
+      </c>
+      <c r="I62" s="1" t="str" cm="1">
         <f t="array" ref="I62">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.11</v>
-      </c>
-      <c r="J62" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J62" s="1" t="str" cm="1">
         <f t="array" ref="J62">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>14076</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K62" s="1" t="str" cm="1">
         <f t="array" ref="K62">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/C0603C470G3HACTU-KEMET-datasheet-84169754.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -3629,31 +4850,31 @@
         <v>100</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I63" s="1" cm="1">
+        <v>126</v>
+      </c>
+      <c r="I63" s="1" t="str" cm="1">
         <f t="array" ref="I63">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J63" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J63" s="1" t="str" cm="1">
         <f t="array" ref="J63">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>34982</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K63" s="1" t="str" cm="1">
         <f t="array" ref="K63">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>ERROR: Datasheet url not found. Please try expanding your search</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -3668,31 +4889,31 @@
         <v>100</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="H64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I64" s="1" cm="1">
+        <v>126</v>
+      </c>
+      <c r="I64" s="1" t="str" cm="1">
         <f t="array" ref="I64">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J64" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J64" s="1" t="str" cm="1">
         <f t="array" ref="J64">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>83219</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K64" s="1" t="str" cm="1">
         <f t="array" ref="K64">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/CRCW06031M00FKEC-Vishay-datasheet-62316122.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -3707,31 +4928,31 @@
         <v>100</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I65" s="1" cm="1">
+      <c r="I65" s="1" t="str" cm="1">
         <f t="array" ref="I65">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.4</v>
-      </c>
-      <c r="J65" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J65" s="1" t="str" cm="1">
         <f t="array" ref="J65">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>39296</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K65" s="1" t="str" cm="1">
         <f t="array" ref="K65">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/SI2369DS-T1-GE3-Vishay-datasheet-23701068.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -3746,31 +4967,31 @@
         <v>100</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="H66" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I66" s="1" cm="1">
+        <v>126</v>
+      </c>
+      <c r="I66" s="1" t="str" cm="1">
         <f t="array" ref="I66">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J66" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J66" s="1" t="str" cm="1">
         <f t="array" ref="J66">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>138034</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K66" s="1" t="str" cm="1">
         <f t="array" ref="K66">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/CRCW060310R0FKEAC-Vishay-datasheet-100063072.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -3785,31 +5006,31 @@
         <v>100</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="H67" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I67" s="1" cm="1">
+        <v>126</v>
+      </c>
+      <c r="I67" s="1" t="str" cm="1">
         <f t="array" ref="I67">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J67" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J67" s="1" t="str" cm="1">
         <f t="array" ref="J67">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>38663</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K67" s="1" t="str" cm="1">
         <f t="array" ref="K67">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>ERROR: Datasheet url not found. Please try expanding your search</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -3824,31 +5045,31 @@
         <v>100</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I68" s="1" cm="1">
+      <c r="I68" s="1" t="str" cm="1">
         <f t="array" ref="I68">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J68" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J68" s="1" t="str" cm="1">
         <f t="array" ref="J68">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>133261</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K68" s="1" t="str" cm="1">
         <f t="array" ref="K68">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/BAT54C%2C215-Nexperia-datasheet-86711619.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -3863,31 +5084,31 @@
         <v>100</v>
       </c>
       <c r="D69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I69" s="1" cm="1">
+      <c r="I69" s="1" t="str" cm="1">
         <f t="array" ref="I69">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.24</v>
-      </c>
-      <c r="J69" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J69" s="1" t="str" cm="1">
         <f t="array" ref="J69">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>305271</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K69" s="1" t="str" cm="1">
         <f t="array" ref="K69">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/BSS123W-7-F-Diodes-Inc.-datasheet-11623882.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3902,31 +5123,31 @@
         <v>100</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="H70" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I70" s="1" cm="1">
+        <v>117</v>
+      </c>
+      <c r="I70" s="1" t="str" cm="1">
         <f t="array" ref="I70">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J70" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J70" s="1" t="str" cm="1">
         <f t="array" ref="J70">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>83177</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K70" s="1" t="str" cm="1">
         <f t="array" ref="K70">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/C0603C101K5GACTU-Kemet-datasheet-41232428.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -3941,31 +5162,31 @@
         <v>100</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I71" s="1" cm="1">
+        <v>126</v>
+      </c>
+      <c r="I71" s="1" t="str" cm="1">
         <f t="array" ref="I71">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>0.1</v>
-      </c>
-      <c r="J71" s="1" cm="1">
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J71" s="1" t="str" cm="1">
         <f t="array" ref="J71">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>38166</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K71" s="1" t="str" cm="1">
         <f t="array" ref="K71">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>http://datasheet.octopart.com/CRCW060352K3FKEA-Vishay-datasheet-62317937.pdf</v>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
   </sheetData>

--- a/02-PCB/BOM/DAWA7.xlsx
+++ b/02-PCB/BOM/DAWA7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apnet365-my.sharepoint.com/personal/epi_apnet_fr/Documents/#PERSO/Electronique/DAWA7/02-PCB/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B2DB58B0-9C7A-4342-9AD3-AE2112E7A705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB3ED8AF-5B50-4F9E-B03F-93C2DD93616D}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B2DB58B0-9C7A-4342-9AD3-AE2112E7A705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C73E229D-3853-45F8-A1AE-4A77BBA5CE2A}"/>
   <bookViews>
-    <workbookView xWindow="42120" yWindow="2220" windowWidth="28800" windowHeight="15555" xr2:uid="{17F05A60-46D3-4D2E-834E-A99E92D6DBEA}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{17F05A60-46D3-4D2E-834E-A99E92D6DBEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -813,1218 +813,1400 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.a5f6670efdfa48fc9523bb88deb0e139">
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>c224a2ec-6b3f-4549-9893-f2ddcc6c1cd7</stp>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d56a9ebf-1435-40b1-83c8-6c458d79d6ee</stp>
+        <tr r="K2" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e6b01355-edfb-4340-b04f-9667aa0061fa</stp>
+        <tr r="J71" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>bf537a2c-7250-41d9-ab8e-d644448a8175</stp>
+        <tr r="J54" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>8a8e31a4-52b9-4995-8c53-d109dd0f021f</stp>
+        <tr r="I18" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e86bbc4e-1d5a-4a09-aa29-198b984e8b4d</stp>
+        <tr r="K22" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>789de623-9b08-4e78-925f-b91ed8c7b980</stp>
+        <tr r="J20" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>001726d9-c743-4b30-abea-23eddf10dfdd</stp>
+        <tr r="I48" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>9f51778c-5a8d-4b63-b837-9763627b7b5a</stp>
+        <tr r="I46" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>11ff7225-5ea4-47bb-84f0-f666232c44eb</stp>
+        <tr r="J24" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>7b24701d-de4d-472c-8e30-4d864b0a7c93</stp>
+        <tr r="K4" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>1f258e2f-a7c4-40d3-b5eb-9b477f1c2346</stp>
+        <tr r="K52" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>8133c5b4-9cea-48d3-93fd-3ef44961c45f</stp>
+        <tr r="J22" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e4caf46a-81b5-4276-8cb7-c8cc9fcd22ce</stp>
+        <tr r="J10" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>0af4ffaa-f3a2-4823-8bbc-94f3faf72efe</stp>
+        <tr r="K34" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>6c7cf8ea-520d-4918-867c-5d9c05eb6021</stp>
+        <tr r="J53" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>bb483f5d-45b0-4f31-8cf2-43d527a7bce0</stp>
+        <tr r="K56" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>05ba9c90-c5c8-4bf4-ac2f-aaa35f3555d4</stp>
+        <tr r="J9" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>2193f6d7-c6fb-4772-80b5-ccb93a41d773</stp>
+        <tr r="I33" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>16cc9630-044e-4754-95e3-0b7197d8a584</stp>
+        <tr r="K50" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>01b43127-f81c-4330-8f5a-9a508506d60f</stp>
+        <tr r="I14" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e191d757-1188-468a-99f5-9dfa3790abfe</stp>
+        <tr r="I65" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d84f2c7d-2a4b-421d-a90c-281101dac5eb</stp>
+        <tr r="J31" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ff632385-2979-417c-ae64-65f7035435f5</stp>
+        <tr r="K45" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>c99f03c1-b2ba-4ffd-a080-113d8fbc4bba</stp>
+        <tr r="K54" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>4bde1942-f6b8-44bb-89e4-258c1827c692</stp>
+        <tr r="K18" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>6c93b6c9-e6b5-405c-97b9-022bb68313fd</stp>
+        <tr r="I21" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ce3cc4ab-f40f-4d7e-8f2f-7660d17f5a2e</stp>
+        <tr r="I38" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>dccb637a-514a-477d-b845-ab2cfe68c4de</stp>
+        <tr r="J55" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b572015f-7c63-4e2d-a9d6-26b4ff483e6b</stp>
+        <tr r="K36" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e609f504-8a84-449d-92aa-6940c9e1e8e3</stp>
+        <tr r="J46" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a909b899-2132-4d78-84a1-58801b4a2609</stp>
+        <tr r="J57" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>722782b0-fdcf-4450-8d68-b3e81b9d57ec</stp>
+        <tr r="J65" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>2f7ac35f-a81d-4223-b8c2-728151568af7</stp>
+        <tr r="K10" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>2f8b7b06-fe57-4a07-a77d-043b4ddd15e2</stp>
+        <tr r="J67" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b8f140e8-9588-4780-a1e8-b765812a5e34</stp>
+        <tr r="J58" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>6db40fa1-dbf6-46d1-a682-0f5d07cab994</stp>
+        <tr r="K31" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e8a557b5-3fa0-40f9-bd2b-0fbdf7a57a58</stp>
+        <tr r="K60" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>c81c5974-453d-4775-b719-0d9edb34807e</stp>
+        <tr r="K41" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>cc4c9a06-1d41-4433-9393-3b546db578dd</stp>
+        <tr r="I66" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>60014449-0282-4c65-b58f-95df22bbe90d</stp>
+        <tr r="K7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>fd26ca2e-9707-40ac-b51c-ea9ea90e019c</stp>
+        <tr r="K65" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>9c6fc2b3-035f-4b95-94b8-f2fcdcd3acb9</stp>
+        <tr r="J47" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>1a07910c-3472-4230-8b8b-2973b0e74f5a</stp>
+        <tr r="J13" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>7ff6b5bf-8857-48bf-9699-77da2066f757</stp>
+        <tr r="I53" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>4591940b-f0d7-4d74-9e0a-15dbda592230</stp>
+        <tr r="I64" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>991bda0d-6f22-494d-9b46-e980d05bd2d6</stp>
+        <tr r="J40" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>73bdf22b-3a6a-4ee7-a3eb-cb8fc0fd1700</stp>
+        <tr r="K12" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d12175e3-2d71-45e4-8a3f-6b209c2515fb</stp>
+        <tr r="J48" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>9a5e13a7-4dd7-427b-a8a4-9655e4e79bce</stp>
+        <tr r="I30" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>3f714495-3ac4-433f-8bfc-bdd12427b473</stp>
+        <tr r="J45" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>eea970b8-074f-4804-b98c-0f1ff78152c7</stp>
+        <tr r="K35" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>538c32a6-2632-4059-a808-1ac9cdb1b5bc</stp>
+        <tr r="K63" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e47af1da-735c-4b0b-bce0-39ddfc91aed4</stp>
+        <tr r="I40" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>55868608-a568-465a-ba19-89cff7d5a6bf</stp>
+        <tr r="J12" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d45f0681-84c2-4f29-9fa3-9c332943d372</stp>
+        <tr r="J62" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>172ba3a7-33a1-499a-89e0-470469aa0695</stp>
+        <tr r="I10" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a3d5eaa2-01b8-483c-aab8-321a9c00091f</stp>
+        <tr r="I56" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>bb9fea9a-8ace-46cc-949c-0fb8345b98c0</stp>
+        <tr r="I8" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>be70e291-4c39-4bfc-902b-4048a91c40d2</stp>
+        <tr r="K32" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a8ffed36-05da-4049-8428-e67aaccab9c2</stp>
+        <tr r="K48" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>079d946e-c5ad-4eee-bc97-6b51265b3cba</stp>
+        <tr r="I9" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>c68d3eb2-9698-46c4-bd4b-07cb4dd182df</stp>
+        <tr r="J61" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>17eb5dee-4e74-4698-9d22-9a1004f103e6</stp>
+        <tr r="J6" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>8e2f292b-5aed-4422-bb28-aac73f545f51</stp>
+        <tr r="J52" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>45fd8c59-a588-432e-b882-02ddb4141d82</stp>
+        <tr r="J49" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>2e82942e-f530-40d9-b4a7-fca1aafc2ebd</stp>
+        <tr r="I58" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>c4fd41b9-7f1a-4c36-b95f-f984aeb5de3d</stp>
+        <tr r="K70" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e993f39e-769f-4992-a0db-8ee3970f8089</stp>
+        <tr r="K58" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b4247edf-f781-4b08-a235-3e6fbba7122e</stp>
+        <tr r="K30" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>cb7360ea-38c2-43fe-b314-c90cecf85ff6</stp>
+        <tr r="J5" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>3f0bb987-773d-4874-b02a-20132518db31</stp>
+        <tr r="J3" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>f9ee9008-3d45-4c66-b66c-6273d62be75e</stp>
+        <tr r="I31" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>78ff15e6-3798-400e-b93e-a738ca4bf751</stp>
+        <tr r="K11" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>cb5a1ddd-507f-4d79-9129-03740dd62a17</stp>
+        <tr r="J17" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>766eae3e-29ac-4158-bc06-f15773e58ef1</stp>
+        <tr r="J41" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>bb0b9a15-6319-4a3e-9260-f2d7b9adac6b</stp>
+        <tr r="J19" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>94aea02c-861a-4bae-895c-bb395b6eeb2a</stp>
+        <tr r="I24" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>397fc92a-4a9a-421b-887d-514518c83fc9</stp>
+        <tr r="I16" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>c836ea99-5acf-44f2-b704-6c025e186f45</stp>
+        <tr r="K9" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>0f9c56ef-bbc1-4bb0-9290-c34c11b5672e</stp>
+        <tr r="I4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>db2ec88b-0afb-4099-bcdd-dba908116c2a</stp>
+        <tr r="K69" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>66d83abd-b2e4-46c8-ba32-44491734b3cc</stp>
+        <tr r="J60" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a0a78d95-f57e-44ad-9744-584abf61f28f</stp>
+        <tr r="J8" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>34a45b65-e486-4776-a1d7-65cf49b4ac67</stp>
+        <tr r="J2" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>59101e5b-c097-4069-b2e1-95d9ba5a793d</stp>
+        <tr r="J14" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>71b4f99f-da8c-44c6-9f54-a55130f45ebe</stp>
+        <tr r="K40" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>5613c5ad-f248-4cb0-a71f-3baa6921a07d</stp>
+        <tr r="K17" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>de9329e0-6d67-4d1a-b6b9-6caf820a0756</stp>
+        <tr r="I2" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a90df75e-2e4c-451f-8c0f-775d9fe887cc</stp>
+        <tr r="K26" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>75f15ec4-f337-4777-a35f-215dc19a1839</stp>
+        <tr r="K46" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>64be41de-66b4-4bd6-b877-b99f355b72f2</stp>
+        <tr r="K13" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>adffa7cc-c54e-42cb-bf35-29e1d5609a08</stp>
+        <tr r="K37" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b26bbceb-0d16-46ee-80b8-7bb5496470a0</stp>
+        <tr r="K15" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>99e76c86-2034-4e22-8a33-201e70b1bd57</stp>
+        <tr r="K38" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>31c033ce-991e-4fa5-94cc-de2930fec53c</stp>
+        <tr r="J23" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>466b93ff-3d7e-4041-9298-d49d7b1fbe9d</stp>
+        <tr r="I71" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>619b16ef-249e-4429-9587-3559e4f9b8b5</stp>
+        <tr r="K8" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>17cb29f9-3b33-4220-b17e-ba3490b84f03</stp>
+        <tr r="I19" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>fea4f2b2-3d3c-43dc-962e-c868eb589bee</stp>
+        <tr r="I63" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>f78057c5-c598-4ae5-86c4-1e085db1cf11</stp>
+        <tr r="K27" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>9683a59f-e0f2-4d3f-bb50-2081c4ca4ce9</stp>
+        <tr r="J56" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b6cb4948-cbc9-4908-870f-eb061d3480b8</stp>
+        <tr r="K5" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>19675dc9-8e70-4b2e-a162-220272ec6dec</stp>
+        <tr r="I55" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a22687b4-42c3-44ca-8b16-d4afa41fd316</stp>
+        <tr r="K53" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>788b5843-f356-43e5-9c4f-372cd51e6702</stp>
+        <tr r="J26" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>0f282591-df3f-475f-9503-14df301f17ba</stp>
+        <tr r="K24" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>0d495c5c-2dac-4a5f-bbe7-d30a1b7da586</stp>
+        <tr r="I12" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>8b14a1c9-5cfc-4dc4-8fb3-566ce01e9dd0</stp>
+        <tr r="K20" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ceef252c-f219-4d24-8ed0-39d1357a48ac</stp>
+        <tr r="I15" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>efe57597-fc11-4cc1-a8a5-c1e3fbf17e78</stp>
+        <tr r="I44" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>1406036c-cedd-4f4c-a6da-40afd99309fc</stp>
+        <tr r="K55" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ce7627e7-341e-40e8-8d7a-f35dc76c8991</stp>
+        <tr r="I6" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a13eefe6-154a-431f-a5de-dc399dd060ec</stp>
+        <tr r="J4" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e7d4190f-3967-4e71-aa18-236a7e88b884</stp>
+        <tr r="I28" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>3717a750-3fa7-451a-99b3-5e4873d75688</stp>
+        <tr r="I61" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ddf3258a-ddae-4084-9de7-0ea1db2273b2</stp>
+        <tr r="I70" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>73439ce5-a4a1-4949-aefd-2e260c646875</stp>
+        <tr r="K28" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>392a07b3-460d-448d-bccc-0ff3280f22a9</stp>
+        <tr r="J50" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b3c8154d-a093-44ed-876d-f963a9a5bde1</stp>
+        <tr r="I51" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>6480a0c4-e0e8-462b-83c2-abba6fd45563</stp>
+        <tr r="J36" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>6624edd4-4909-47e3-b56e-f2135f424fb5</stp>
+        <tr r="J16" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>3e182f00-666f-4811-b0b0-fcb967618c08</stp>
+        <tr r="I36" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>34e49505-2668-4d61-85d0-ce661bcf90ec</stp>
+        <tr r="I35" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>7b461b48-b9fd-4237-8920-838eda870c46</stp>
+        <tr r="J35" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>40879458-0395-4ace-985e-55e1d502823d</stp>
+        <tr r="I26" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>3dcaa684-7aba-4402-a883-f00f61f0981b</stp>
+        <tr r="I27" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a3b55f40-2639-43a2-b5f7-77eac1104cd8</stp>
+        <tr r="J59" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>cf9dcc90-a4a7-4983-a52b-cb086ebe54cf</stp>
+        <tr r="I5" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a336dfd7-66e7-40b5-b01c-41b02d287eb5</stp>
+        <tr r="I32" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b0b94bdb-a936-4de3-8227-16356fbb1510</stp>
+        <tr r="I23" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>7d24c273-50ab-447a-9af6-77923e4a3afa</stp>
+        <tr r="J42" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b86cc76b-b9cd-47d6-9682-aa66ec2406f2</stp>
+        <tr r="I41" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a0d34ab9-de83-4bea-b2b8-e136ea62610c</stp>
+        <tr r="J11" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>138289af-3fce-47eb-a988-5c41d16e7fd4</stp>
+        <tr r="J32" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>6bdf00a2-771f-4b54-9012-3a8cac6e5674</stp>
+        <tr r="J28" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>c42f4188-58a1-4015-978b-46312fcf0992</stp>
+        <tr r="J33" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>728e5091-db7c-466f-adb7-4eebcca2c0a6</stp>
+        <tr r="J70" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>0933c721-080d-48fa-af87-1482d723d001</stp>
+        <tr r="I22" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>4a08c294-b533-46ae-8b9a-579a1884e65a</stp>
+        <tr r="J68" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>1dcf773b-e35c-483d-9db3-2f876dee6fd4</stp>
+        <tr r="J64" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d4317c91-a24e-4175-85c1-0f49a3ba3a01</stp>
+        <tr r="I57" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>4118f6ca-9cd1-46fa-a299-86d4cb39df07</stp>
+        <tr r="J51" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a2ab7cdc-0d3f-44f3-bac5-c7e9abbd8013</stp>
+        <tr r="K68" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d091fb84-5bff-4a01-b0d0-152bde392615</stp>
+        <tr r="J63" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>21a69024-60f2-4c9d-9644-adfcd5319bbd</stp>
+        <tr r="I67" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>126528c7-196b-45d7-b3d2-589c54da00b3</stp>
+        <tr r="I29" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>f68b4f02-74e2-46ae-8861-0bccda5d9bd7</stp>
+        <tr r="K29" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a3269072-a0ab-409d-910f-40e8cce7b0ad</stp>
+        <tr r="I68" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>dd0dfdf1-fd0b-49d5-9b6b-5952e1e5780b</stp>
+        <tr r="K62" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>eac48133-2e54-4d73-a5ea-8e09bacdee71</stp>
+        <tr r="K42" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>6fb4a273-bb99-4ee1-8c3b-25d07cafc785</stp>
+        <tr r="K57" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>649fc5d2-a2e8-4d31-bd31-d50d7217b027</stp>
+        <tr r="I37" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>1df9fa30-8e28-44e4-a297-4085e7df7b8c</stp>
+        <tr r="K66" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>fcfc1ec3-a1a8-4876-b0e1-c4b196d3acc7</stp>
+        <tr r="I11" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>4e9b4ad7-e90e-430a-973c-9e78fac60b7e</stp>
+        <tr r="I13" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>528aed66-32db-46fa-bfd5-d9d1f90b059f</stp>
+        <tr r="K71" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>cd50b8d4-0968-402a-b433-34d32e888586</stp>
+        <tr r="K21" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>563c1150-8a31-4080-aacb-e48abd715f87</stp>
+        <tr r="I54" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>5780a486-c33c-40bd-8ed0-ed189fd40882</stp>
+        <tr r="I62" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>60507c83-a053-483b-a3af-d05a29e44bf8</stp>
+        <tr r="K33" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>1d47b630-b6c2-411e-8252-9d59cfcb6874</stp>
+        <tr r="K3" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>6ff58364-db75-4fe9-843d-56fb32ce5e4a</stp>
+        <tr r="K61" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>02a30deb-2b7d-4b41-a0d1-89f44c59d077</stp>
+        <tr r="K16" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>961a6977-66fe-4d6a-8814-c84d02430858</stp>
+        <tr r="I20" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>dbd75bea-f4c0-49ba-b0ec-077807f849f3</stp>
+        <tr r="J30" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e6f5cf2a-1db1-42a0-9448-4e00ea51d991</stp>
+        <tr r="I17" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>63b5e1cf-d8c5-4600-b45f-2b7eaa28c803</stp>
+        <tr r="J15" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>4459f23e-8891-4a1d-b83b-56e797a7203f</stp>
+        <tr r="K25" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>97058f07-58aa-4795-aec1-bbaf7906d184</stp>
+        <tr r="J29" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>380fc155-c0a6-4d4d-9cd2-7129a0b0e335</stp>
+        <tr r="K67" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>681139fb-1aed-4868-b324-119aef5ab458</stp>
+        <tr r="J34" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>9809e703-248a-4c70-8155-6a9812084269</stp>
+        <tr r="J21" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>93bb1d44-839c-44c1-a6bf-be446504c556</stp>
+        <tr r="J37" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ab39710b-cdd2-4d68-9c4e-6f0562eab1df</stp>
+        <tr r="I34" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e4eb9767-85b4-41fd-93b7-6de7a2f5f299</stp>
+        <tr r="K44" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d40a1150-9154-49af-972d-d3218537574a</stp>
+        <tr r="I42" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>10b5470c-7b83-40f7-8207-2fe1a99c76ab</stp>
         <tr r="I60" s="2"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>52cef026-2e74-40ee-9fad-4265f6f0c465</stp>
+        <stp>d32e59fa-34b9-4f4e-9e35-6976f0eae898</stp>
+        <tr r="I49" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b236bbd2-98c5-4c20-bc48-6500f42a22ee</stp>
+        <tr r="K64" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d6794196-9884-47ed-b10f-05799cbddbcf</stp>
+        <tr r="I25" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e7c94e1b-e5db-4c5b-955e-f0f7674b7955</stp>
+        <tr r="I7" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d41e3cb8-ce5b-44dc-93aa-833ea9f4ac1c</stp>
+        <tr r="K49" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>99171aa0-b2bb-4bfa-8d44-230a3b0d9af5</stp>
+        <tr r="K23" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>908ee8b3-5579-4728-b68c-e751be5d40bd</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>3486abc2-cb55-46e7-af90-503957a24c44</stp>
+        <tr r="J25" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ae42b84b-edea-477b-8168-8a7d8124dc80</stp>
+        <tr r="J7" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>7130bbc7-5733-4b94-a911-c2c659af0720</stp>
+        <tr r="J18" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d7002028-9076-43df-ad66-0bcf4d323717</stp>
+        <tr r="K19" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b5fec79a-82d0-4577-82dc-23ddb2e24473</stp>
+        <tr r="J38" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>e4c278e1-73c9-42de-b63a-8de2edabf1e1</stp>
+        <tr r="I59" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>8788f485-dfea-4a77-b189-73f2a604d1a4</stp>
+        <tr r="K59" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>d574e81f-4408-4008-afc2-c46818a46232</stp>
+        <tr r="I45" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a7053431-9755-4d7f-a9e2-7f0e43afd024</stp>
+        <tr r="K14" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>58d2b269-c975-4be1-a21e-7f59fe7e170f</stp>
+        <tr r="I69" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>1a207f35-efa8-4070-b122-c81d264d43ad</stp>
+        <tr r="J66" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>9bd05036-a6e8-4b8a-87ca-38dd2a66c58d</stp>
+        <tr r="J44" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>5be30450-78cb-4da5-bacc-dd3e877589af</stp>
         <tr r="K47" s="2"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>0105d058-a414-4e6b-90b7-7d93693f4942</stp>
-        <tr r="K34" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>154e1c52-2f9f-40bd-b1bd-5b39f35a07bb</stp>
-        <tr r="J39" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>cddd2ff4-d4f7-4cb5-94e3-673e9a9f4db9</stp>
-        <tr r="J54" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>d79d0df7-12fb-46dc-b772-a5984613c0b0</stp>
-        <tr r="K41" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>384c7a98-dbc6-435e-b987-43d575cd9cd7</stp>
-        <tr r="I33" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>7c3a2dce-b467-499f-957f-2b7ad00e4c92</stp>
-        <tr r="K43" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>c7a5ea34-7e6b-4951-8ba9-dbc1e527bc88</stp>
-        <tr r="K57" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>ce3784e7-49df-4fab-816d-6f001a72a3cd</stp>
-        <tr r="I69" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>3d7f7e60-c7da-4ebf-a068-d233170e62ab</stp>
-        <tr r="K37" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>f1bd714b-3d59-4698-969c-46e01aa6ccfa</stp>
-        <tr r="I6" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>bc27c7f4-ba14-4cad-b2e7-f63effa55ac8</stp>
-        <tr r="I66" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>e6a49980-9ad1-4d8a-a1af-b40112c1b699</stp>
-        <tr r="K65" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>04053819-8848-4090-be70-96c32595e6fe</stp>
-        <tr r="I7" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>4b624a08-ed2c-4d90-b1bf-da5c659eeff4</stp>
-        <tr r="K55" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>774d4bc1-f508-4ef2-81f9-90a0af76a7c7</stp>
-        <tr r="K24" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>f4597fa1-dea8-43e7-b5f2-b195ec47d3a3</stp>
-        <tr r="J16" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>a052896c-da48-4006-af4d-09012c5e6253</stp>
-        <tr r="K25" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>4bac5f89-ccb7-49b6-afe4-f1b94438f6a5</stp>
-        <tr r="K46" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>445d0c58-31e4-477d-aa49-03f06e1dfea0</stp>
-        <tr r="I29" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>917a9af1-f531-430c-847b-a7f151dfdca9</stp>
-        <tr r="J35" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>e4d48c6b-39e4-4702-a709-1dbd219444aa</stp>
-        <tr r="I63" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>ca25333c-99c0-4a9b-b4d6-80d2bc3d596f</stp>
-        <tr r="J53" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>1c31eeea-90dd-4c0e-9631-9a56f684b97f</stp>
-        <tr r="I38" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>f73bf3b6-70da-4747-b53f-852147626556</stp>
-        <tr r="J68" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>4ea5c3bf-c9c0-487a-8512-5f590479874f</stp>
-        <tr r="K35" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>a91264b0-6378-4599-9223-a09e1bc66b51</stp>
-        <tr r="J67" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>bfd2b789-7fc7-40f5-8a7d-daa501e52491</stp>
-        <tr r="J44" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>9b693000-c677-4c84-b3b7-ce4bd01992c1</stp>
-        <tr r="J20" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>aca594a2-b06c-4216-b3bd-c53280610d79</stp>
-        <tr r="J2" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>d0cb2d3a-eaf9-4614-9e2a-ca6da0dd2fdc</stp>
-        <tr r="K38" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>5505dd7a-f02d-4ba6-992c-8be3ed6a75b6</stp>
-        <tr r="J27" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>47860cdd-fe41-4332-8064-b539a29d9047</stp>
-        <tr r="K26" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>2e77fd0a-235b-41ab-99eb-1dc39e56740a</stp>
-        <tr r="I71" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>828bc04c-64a3-4f2b-b9fa-11b85188a19f</stp>
-        <tr r="K39" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>56adf947-bcba-48f9-b544-dd725d59ba9f</stp>
-        <tr r="J70" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>d8457d85-e4c4-4fa8-84e8-95689df55402</stp>
-        <tr r="J37" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>9bd2d05d-796c-4caa-8dfa-f3761dc91451</stp>
-        <tr r="J6" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>d25f38ff-9636-40ec-a1cd-b2f5fe9e3e65</stp>
-        <tr r="I19" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>38818129-a1ba-4b9e-8091-c4f0e4535555</stp>
-        <tr r="K4" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>624901f3-11c8-48fa-b121-e3deeac53281</stp>
-        <tr r="K36" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>ab53e569-51a3-431f-848a-b1515968a6c9</stp>
-        <tr r="K30" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>e5c0f4e7-3d7f-4a35-a4b2-0b9725b5b08a</stp>
-        <tr r="K8" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>adb18d72-f6cb-4ee4-b853-74794c3db207</stp>
-        <tr r="I21" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>c8386f00-2389-48f7-99d5-c52a790bc1b0</stp>
-        <tr r="I34" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>5c8ddc72-fddf-485d-bb47-6e9ffa096084</stp>
-        <tr r="K21" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>23e2217d-fc89-4300-b5f3-e2b087fa1452</stp>
-        <tr r="K58" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>6b7fb190-ba83-4ae5-991f-e84056958893</stp>
-        <tr r="K13" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>9b7807e8-df5a-4df5-a719-0c33bd85f1e1</stp>
-        <tr r="K3" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>71c1f76e-ba92-4448-bb5b-5ca178ed815e</stp>
-        <tr r="J55" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>ea7e9700-a762-4713-856b-e008d42ed54b</stp>
-        <tr r="K49" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>3545d075-46a0-4840-bb18-b5038de0fb5f</stp>
-        <tr r="I8" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>a4aef086-e56b-4cc6-a637-cf0ff91297b9</stp>
-        <tr r="K70" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>76a8786c-d2c4-4963-bae8-bdff4d12603e</stp>
-        <tr r="K67" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>0ca02262-52ed-4609-8d06-ab2ce36ec013</stp>
-        <tr r="I10" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>bed7ae5f-111c-43d9-a3ce-0b03d6a81339</stp>
-        <tr r="I28" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>8b3a65ec-87bd-4244-b280-78b08d7133a4</stp>
+    </main>
+    <main first="rtdsrv.ecd013c14a304f14a79e3dd6d0ef590e">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>a57df463-65dc-4efe-aa6a-6d78190eed4f</stp>
         <tr r="J69" s="2"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>c82b74e0-ee24-4636-91f8-f5f7822f921e</stp>
-        <tr r="K52" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>19a066ce-1e0a-4202-8e3a-e63a5ac73d94</stp>
-        <tr r="K53" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>e4e75860-3cf1-4ae6-acca-7f2551476093</stp>
-        <tr r="J3" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>3a7e0d42-67a6-4109-b31d-bd6657218ff2</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>e045b629-0762-425a-b482-b5b8daad0544</stp>
-        <tr r="I50" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>73b0dff6-a4e4-4c58-b075-a710b689547c</stp>
-        <tr r="J7" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>1fe5cfbc-dc30-4d14-b67a-3c81932f6979</stp>
-        <tr r="I35" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>74eadbba-34ee-48b9-8e69-e4e8111eba91</stp>
-        <tr r="K20" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>cd27d18e-d4be-4007-bf43-796096c3330a</stp>
-        <tr r="J12" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>a8fe3ea1-936b-4500-ac99-2af1c1ad63bb</stp>
-        <tr r="I11" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>3cc2f6cb-211f-4c95-9198-a90bae7809ab</stp>
-        <tr r="J26" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>b9d75771-2ad4-4458-a8c5-bd429444684b</stp>
-        <tr r="J19" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>e6dde31b-27f6-45e3-b6e0-4b3225df6968</stp>
-        <tr r="K50" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>96ac4b59-6db7-489f-b63d-f839d34be3df</stp>
-        <tr r="I9" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>175af827-2303-445b-ace5-b0236100f49c</stp>
-        <tr r="K31" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>542c1087-80c2-4290-a07a-9c9c86308a40</stp>
-        <tr r="K9" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>1b053695-ffa5-4ffc-9bda-ae948fefb990</stp>
-        <tr r="K15" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>c92a6f47-5340-4ed2-bd7c-2a4c90d32653</stp>
-        <tr r="I41" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>39b2f6de-91e3-4e3f-bbfd-e7a4296ba023</stp>
-        <tr r="J9" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>28c0149e-6b40-49ff-a165-d22e46942f01</stp>
-        <tr r="K51" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>3316c49f-bf4e-4e0a-bb16-4e65d9c06a19</stp>
-        <tr r="J50" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>40a6954d-4836-4851-9182-6f12d787ba64</stp>
-        <tr r="I18" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>46d74428-cbea-44ca-a2dc-8e8f1842612e</stp>
-        <tr r="I53" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>8d82b5d7-a8b8-4e88-b6ec-955acc364239</stp>
-        <tr r="I62" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>820c9732-a719-40c8-b821-fff4ced86d7d</stp>
-        <tr r="J47" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>76b7f577-9de2-46b3-9824-f85229cdb3b7</stp>
-        <tr r="I27" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>8e4c9ee1-5167-4133-bf77-db1759cffc24</stp>
-        <tr r="I48" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>f4af1806-14a8-48f1-b1ca-5c0fcc9a2f98</stp>
-        <tr r="I39" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>887d65c6-54bd-44fd-a645-edab16e1a3e7</stp>
-        <tr r="J59" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>e5fc4428-c711-4192-a029-58127a84c271</stp>
-        <tr r="J71" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>81b52009-7a64-4642-af87-6c689034ffd7</stp>
-        <tr r="J41" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>c20bd790-8855-4757-8bfb-511632a9cffd</stp>
-        <tr r="J38" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>018a3263-4f5e-4928-8e43-fb6a62c2abee</stp>
-        <tr r="I61" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>31d1e83f-2d63-405f-98ac-6f806ca660b0</stp>
-        <tr r="I70" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>33b68ef9-e3c6-4fcc-9a25-e9dfa6993d63</stp>
-        <tr r="I58" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>fb187edb-e6e9-41d9-98ba-de2cdbbc14bf</stp>
-        <tr r="J36" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>8d6bf9b1-48c6-48a0-bb29-97a293adbeb9</stp>
-        <tr r="J58" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>d3cf526b-aedb-461e-84c0-be3d2982902d</stp>
-        <tr r="J21" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>d3e3761a-0a8b-4974-939a-16378f3e1b17</stp>
-        <tr r="I16" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>65aea985-2e6a-41fb-8b56-4dfeb0d2d7dc</stp>
-        <tr r="K32" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>b9bca3ca-e501-4e15-94fb-fecaeb759005</stp>
-        <tr r="J43" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>00dae579-b79a-441c-a7ca-e7a91800dcf6</stp>
-        <tr r="K45" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>1896d0dd-6299-450c-b756-ca8880f4524a</stp>
-        <tr r="K56" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>5917db1c-6810-40e0-933f-30247aa8b43d</stp>
-        <tr r="I59" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>181ba875-512e-4330-a285-b84c38ccb60f</stp>
-        <tr r="I49" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>5f319407-4e63-4f20-b8ca-922d05e2a99d</stp>
-        <tr r="J30" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>d8f0b8a4-fe5d-4d3b-bc11-ea1da51bf5a2</stp>
-        <tr r="I40" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>1fab2baa-ceae-4925-9e13-554cd3def10d</stp>
-        <tr r="I68" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>1e49b68a-7dc8-4cdb-a31c-53fc6da13453</stp>
-        <tr r="K10" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>de2b0c55-615e-40b6-aff9-6bbb37945a6b</stp>
-        <tr r="J25" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>96fc862e-f21e-47ba-bb45-c22df3dfcfec</stp>
-        <tr r="J60" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>6089e462-6e9f-40fb-b777-2fca1ed40007</stp>
-        <tr r="J28" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>4e9a3642-4f9c-435c-b501-8aa0bb122cb5</stp>
-        <tr r="K60" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>fb137ae9-fb73-42d8-9fa7-a0884a39f9c1</stp>
-        <tr r="K7" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>1569bb44-0393-46a0-b54e-0ec07c9981c3</stp>
-        <tr r="J61" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>3786175d-f387-4de7-be23-f75f7d323df9</stp>
-        <tr r="I15" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>a4b0c3c2-69e1-45e3-83df-9af4818dac03</stp>
-        <tr r="J29" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>e4d93270-6616-4106-957f-77559c38b037</stp>
-        <tr r="K27" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>ae7c4e8c-0cc3-460d-9edb-ef8ae5365625</stp>
-        <tr r="I45" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>badfe06b-b86d-455e-a1e3-324da165fec7</stp>
-        <tr r="K6" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>a1048fe9-8dd9-46e9-b209-dde9e1464f8e</stp>
-        <tr r="I24" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>01715879-e5df-43a4-aa16-f935b37c66a9</stp>
-        <tr r="K18" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>6c552b58-312d-41f0-b739-0af7468ce335</stp>
-        <tr r="I44" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>9a96a60e-62f7-4f1d-adf8-4bfc7534da8f</stp>
-        <tr r="K12" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>bf1936a1-e9ff-4012-a7ff-8e803f50c402</stp>
-        <tr r="I12" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>9749e819-c3d8-4721-a56f-d309793f27c6</stp>
-        <tr r="I56" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>0e7a9d04-0107-4703-91fc-1d0a3b7614de</stp>
-        <tr r="I26" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>c232fd13-5754-4c1d-a0af-c80ae8e93145</stp>
-        <tr r="J66" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>fef80af2-578c-4ca0-ae76-1ff3b20025f5</stp>
-        <tr r="I4" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>267a3004-3499-4cc2-a7f2-9303fa74ad00</stp>
-        <tr r="J5" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>98c5513f-f73f-4534-ae7d-f67e98a31542</stp>
-        <tr r="J49" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>2f15a0c7-7d92-4b4e-89cb-358d0c899f3b</stp>
-        <tr r="I22" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>57337000-ce88-458b-b764-c03831796f27</stp>
-        <tr r="K29" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>256457c8-cae7-488c-b5f1-c08c3b27cf04</stp>
-        <tr r="J52" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>9107ddb0-79d2-4172-9362-12754588d129</stp>
-        <tr r="J64" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>22ddeeb3-957a-4c3b-93d1-b91ebdb56e52</stp>
-        <tr r="I30" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>a9d4e585-113f-4056-8bdb-a153d72129cb</stp>
-        <tr r="J56" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>4e93af7a-5f82-47df-84b8-b57dd5962b38</stp>
-        <tr r="K54" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>736bce7d-2b1f-4f24-9142-7b22ad48b3a6</stp>
-        <tr r="I31" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>5cd0b217-c5b7-47dd-a4d4-f9e9c9e4cc6c</stp>
-        <tr r="I20" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>ebeda6e4-b39f-4712-ae5b-121e2632ad1c</stp>
-        <tr r="K19" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>b518b90e-5b2b-4c47-8a4d-6858e7289da2</stp>
-        <tr r="I42" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>2311cf0b-143a-45ef-a99d-f225d9727a2c</stp>
-        <tr r="J51" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>01f7c970-8b75-48be-b9b6-45fe6f72852d</stp>
-        <tr r="K62" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>92531e46-2f1a-4c57-94bb-967864b7dc9b</stp>
-        <tr r="I54" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>9cf861e5-45dc-473d-bf39-1ffa0525e347</stp>
-        <tr r="K22" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>d86b2858-f7df-4c0e-95f8-7d2f6245fa33</stp>
-        <tr r="I17" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>42b59257-477a-4954-903a-dd2677347291</stp>
-        <tr r="K66" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>66d2813f-3c6f-461b-bd51-ac877a1b5317</stp>
-        <tr r="I2" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>dd0c6c5d-ed41-478c-9c6d-10c3f1bc4d9f</stp>
-        <tr r="K44" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>b2cd32e3-a9df-449f-8c59-6b24ade86f93</stp>
-        <tr r="K68" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>a2867bd8-bbcc-4ce5-99f6-ab4b7fd37752</stp>
-        <tr r="J18" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>c2e9f505-eb0f-42c0-9eac-85ca1e29a068</stp>
-        <tr r="J15" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>0cf15a4a-3ab6-4b5b-a9f3-8219cdfdd0a0</stp>
-        <tr r="J40" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>a8362b9a-5641-4646-9c9b-846967f6104b</stp>
-        <tr r="K33" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>065509f3-95d8-41a5-a67d-457757168eeb</stp>
-        <tr r="J45" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>eea37d7b-aa01-427b-9057-c8703e2b79bd</stp>
-        <tr r="I37" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>8ea11d67-1e24-45d3-ab54-624b43a28d7d</stp>
-        <tr r="K69" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>070f827b-9103-4a2b-90ac-479c3c53b829</stp>
-        <tr r="J48" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>ce1bdaef-71c5-4b2d-8e4f-7e2061d77d93</stp>
-        <tr r="K11" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>70ffc57e-6942-4ba8-af3d-2fc3379b25df</stp>
-        <tr r="J22" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>a2a5bd30-a850-4ad0-8fca-89dbfe358de3</stp>
-        <tr r="K59" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>e34bd8b7-3daf-499f-bf34-8e9ff59d1ae6</stp>
-        <tr r="J10" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>89eda2f7-f1bb-4702-9d41-4bba8fd213dc</stp>
-        <tr r="J46" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>7b769aaa-84ea-4ad1-a625-47550bd931a6</stp>
-        <tr r="J34" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>68d24bcb-bb19-4760-8d6a-427bc0d60ad8</stp>
-        <tr r="J8" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>c87db523-3bd8-4ac1-8dc0-4dd674a3baba</stp>
-        <tr r="K64" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>682312cf-7975-41e3-802b-db579580363a</stp>
-        <tr r="K40" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>eedc61b4-bd70-436d-b5f0-e88177e77f14</stp>
-        <tr r="K17" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>6dfe782b-ddf5-4dad-8e1a-4d9461330ef5</stp>
-        <tr r="K48" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>fc5941e5-6ef7-4e20-8626-c6b07511d87d</stp>
-        <tr r="K28" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>57dd94f5-ec30-4639-a9e2-ec1397d3a3b5</stp>
-        <tr r="I46" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>987ebf71-b718-4792-a908-7fea1c291f3a</stp>
-        <tr r="I25" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>790851cd-61b1-474b-94bd-02e2bc4181a0</stp>
-        <tr r="I55" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>210c7b91-6342-4656-849e-a27d9d19cba8</stp>
-        <tr r="J65" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>fce32655-883e-49e0-a667-4b0d13c46d3d</stp>
-        <tr r="K71" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>be2bc80f-0f97-4390-a871-cd1d6bbaa2ff</stp>
-        <tr r="J42" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>e818f763-f4bc-4ce1-9797-8351e82d74da</stp>
-        <tr r="K5" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>f41f4edc-86c2-4bc0-b277-c5834002a58f</stp>
+        <stp>81a0b729-c658-418b-a812-de4f47469907</stp>
         <tr r="I52" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>9fcb9a17-2956-471c-b980-be2edc70c651</stp>
-        <tr r="I43" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>673f4a69-93cb-4fe6-a2f2-332ee4921faa</stp>
-        <tr r="I36" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>e1a60d4c-7102-47bd-a919-88ce3a38d115</stp>
-        <tr r="J31" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>87bd56cd-0f05-4e79-8b6c-b0899c8e5286</stp>
-        <tr r="I32" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>03f2bfcb-3db6-4106-8823-268b889f830e</stp>
-        <tr r="I47" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>f8ac8f44-693c-4b6c-92e2-9135e70770b8</stp>
-        <tr r="J57" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>7f77690e-4d8c-425d-b3a4-ce33ac6a108b</stp>
-        <tr r="J13" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>2a624803-f98d-491a-bf61-6cbf3753ad45</stp>
-        <tr r="J24" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>8374b8e9-01ec-4bbd-8fd2-b27c72d7fb5b</stp>
-        <tr r="J33" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>1150184c-2ca5-473c-a517-fd82adaaa052</stp>
-        <tr r="J63" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>d39a3e77-97bc-48d7-8e6a-31cbf7fd81b3</stp>
-        <tr r="J11" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>8ed6de22-b786-4375-9b86-e66e452ee590</stp>
-        <tr r="K61" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>62300854-aca1-47ff-9a5a-b6410ab3c68d</stp>
-        <tr r="K42" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>0d282b37-63a3-4e8c-8389-a1daa48a74a8</stp>
-        <tr r="J62" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>98c367bb-f053-4e1a-8733-45d6e17a4edc</stp>
-        <tr r="I13" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>b2be8664-71e3-464d-a647-778a27a30902</stp>
-        <tr r="I5" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>d3c36a86-b6fd-48c0-b0a7-217ab94c63a5</stp>
-        <tr r="I65" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>dbec2437-dcc7-4a3d-9ec4-392074566b87</stp>
-        <tr r="J4" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>03482d79-65c8-49c1-a278-d462d9083052</stp>
-        <tr r="K2" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>7cbea457-c57d-48af-b9f6-e852cb9ce4eb</stp>
-        <tr r="I51" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>ec71d6a2-93a6-47c7-85ff-ef7b3eee2d4e</stp>
-        <tr r="I67" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>8485cb23-b79f-412d-a052-02a779394430</stp>
-        <tr r="I57" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>33b7d783-95de-40ff-81f7-1a53a7ffe1ec</stp>
-        <tr r="I64" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>4ba82e97-1236-4259-b810-ec87a29924d1</stp>
-        <tr r="K16" s="2"/>
-      </tp>
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>08c9563a-29f6-43bc-8ef4-9db0757783c1</stp>
-        <tr r="K63" s="2"/>
       </tp>
     </main>
   </volType>
@@ -2093,7 +2275,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BCC0C53-F60D-4CB7-81E2-CF404BD2DE7B}" name="_20210223_dawa_7_0__1" displayName="_20210223_dawa_7_0__1" ref="A1:K71" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K71" xr:uid="{60875DBE-60A6-4CDF-A2FC-CD995560F5AC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K71">
-    <sortCondition ref="C1:C71"/>
+    <sortCondition ref="H1:H71"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{CCFC929E-B39A-48D6-BE96-B41E68A839FF}" uniqueName="1" name="Qty" queryTableFieldId="1"/>
@@ -2413,8 +2595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E12D2A4-9FFC-4B98-9F46-BD872FFC1AEF}">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2472,26 +2654,26 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="str" cm="1">
         <f t="array" ref="I2">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -2511,26 +2693,26 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1" t="str" cm="1">
         <f t="array" ref="I3">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -2550,26 +2732,26 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="I4" s="1" t="str" cm="1">
         <f t="array" ref="I4">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -2586,29 +2768,29 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1" t="str" cm="1">
         <f t="array" ref="I5">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -2628,26 +2810,26 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="I6" s="1" t="str" cm="1">
         <f t="array" ref="I6">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -2659,7 +2841,7 @@
       </c>
       <c r="K6" s="1" t="str" cm="1">
         <f t="array" ref="K6">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>!!! Processing !!!</v>
+        <v>ERROR: Unauthorized Access. Please email contact@octopart.com for assistance.</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2667,26 +2849,26 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1" t="str" cm="1">
         <f t="array" ref="I7">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -2703,7 +2885,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2713,19 +2895,19 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="I8" s="1" t="str" cm="1">
         <f t="array" ref="I8">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -2742,29 +2924,29 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="I9" s="1" t="str" cm="1">
         <f t="array" ref="I9">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -2781,29 +2963,29 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="I10" s="1" t="str" cm="1">
         <f t="array" ref="I10">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -2820,29 +3002,29 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="I11" s="1" t="str" cm="1">
         <f t="array" ref="I11">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -2862,26 +3044,26 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="I12" s="1" t="str" cm="1">
         <f t="array" ref="I12">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -2898,29 +3080,29 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="C13">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I13" s="1" t="str" cm="1">
         <f t="array" ref="I13">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -2937,65 +3119,68 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>215</v>
+        <v>117</v>
+      </c>
+      <c r="I14" s="1" t="str" cm="1">
+        <f t="array" ref="I14">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J14" s="1" t="str" cm="1">
+        <f t="array" ref="J14">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="K14" s="1" t="str" cm="1">
+        <f t="array" ref="K14">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I15" s="1" t="str" cm="1">
         <f t="array" ref="I15">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3012,29 +3197,29 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="I16" s="1" t="str" cm="1">
         <f t="array" ref="I16">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3054,26 +3239,26 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I17" s="1" t="str" cm="1">
         <f t="array" ref="I17">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3081,7 +3266,7 @@
       </c>
       <c r="J17" s="1" t="str" cm="1">
         <f t="array" ref="J17">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>ERROR: Unauthorized Access. Please email contact@octopart.com for assistance.</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K17" s="1" t="str" cm="1">
         <f t="array" ref="K17">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
@@ -3093,26 +3278,26 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="I18" s="1" t="str" cm="1">
         <f t="array" ref="I18">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3132,26 +3317,26 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="I19" s="1" t="str" cm="1">
         <f t="array" ref="I19">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3171,26 +3356,26 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="I20" s="1" t="str" cm="1">
         <f t="array" ref="I20">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3210,26 +3395,26 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C21">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I21" s="1" t="str" cm="1">
         <f t="array" ref="I21">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3249,26 +3434,26 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="I22" s="1" t="str" cm="1">
         <f t="array" ref="I22">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3288,60 +3473,65 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="G23" s="1" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>215</v>
+        <v>102</v>
+      </c>
+      <c r="I23" s="1" t="str" cm="1">
+        <f t="array" ref="I23">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="J23" s="1" t="str" cm="1">
+        <f t="array" ref="J23">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
+        <v>!!! Processing !!!</v>
+      </c>
+      <c r="K23" s="1" t="str" cm="1">
+        <f t="array" ref="K23">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
+        <v>!!! Processing !!!</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I24" s="1" t="str" cm="1">
         <f t="array" ref="I24">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3361,26 +3551,26 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="I25" s="1" t="str" cm="1">
         <f t="array" ref="I25">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3400,26 +3590,26 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I26" s="1" t="str" cm="1">
         <f t="array" ref="I26">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3439,26 +3629,26 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>95</v>
+        <v>177</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="I27" s="1" t="str" cm="1">
         <f t="array" ref="I27">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3466,7 +3656,7 @@
       </c>
       <c r="J27" s="1" t="str" cm="1">
         <f t="array" ref="J27">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>!!! Processing !!!</v>
+        <v>ERROR: Unauthorized Access. Please email contact@octopart.com for assistance.</v>
       </c>
       <c r="K27" s="1" t="str" cm="1">
         <f t="array" ref="K27">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
@@ -3475,29 +3665,29 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="I28" s="1" t="str" cm="1">
         <f t="array" ref="I28">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3517,26 +3707,26 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>176</v>
+        <v>42</v>
       </c>
       <c r="I29" s="1" t="str" cm="1">
         <f t="array" ref="I29">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3553,29 +3743,29 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="I30" s="1" t="str" cm="1">
         <f t="array" ref="I30">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3602,19 +3792,19 @@
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I31" s="1" t="str" cm="1">
         <f t="array" ref="I31">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3634,26 +3824,26 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="I32" s="1" t="str" cm="1">
         <f t="array" ref="I32">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3661,7 +3851,7 @@
       </c>
       <c r="J32" s="1" t="str" cm="1">
         <f t="array" ref="J32">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>ERROR: Unauthorized Access. Please email contact@octopart.com for assistance.</v>
+        <v>!!! Processing !!!</v>
       </c>
       <c r="K32" s="1" t="str" cm="1">
         <f t="array" ref="K32">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
@@ -3673,26 +3863,26 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="I33" s="1" t="str" cm="1">
         <f t="array" ref="I33">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3712,26 +3902,26 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I34" s="1" t="str" cm="1">
         <f t="array" ref="I34">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3748,29 +3938,29 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="C35">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="I35" s="1" t="str" cm="1">
         <f t="array" ref="I35">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3787,29 +3977,29 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
         <v>2</v>
       </c>
-      <c r="B36">
-        <v>20</v>
-      </c>
-      <c r="C36">
-        <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>10</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="I36" s="1" t="str" cm="1">
         <f t="array" ref="I36">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3826,29 +4016,29 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="I37" s="1" t="str" cm="1">
         <f t="array" ref="I37">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3868,26 +4058,26 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="C38">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="I38" s="1" t="str" cm="1">
         <f t="array" ref="I38">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3907,38 +4097,35 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="1" t="str" cm="1">
-        <f t="array" ref="I39">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>!!! Processing !!!</v>
-      </c>
-      <c r="J39" s="1" t="str" cm="1">
-        <f t="array" ref="J39">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>!!! Processing !!!</v>
-      </c>
-      <c r="K39" s="1" t="str" cm="1">
-        <f t="array" ref="K39">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>!!! Processing !!!</v>
+        <v>10</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3946,26 +4133,26 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C40">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="I40" s="1" t="str" cm="1">
         <f t="array" ref="I40">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -3982,29 +4169,29 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="I41" s="1" t="str" cm="1">
         <f t="array" ref="I41">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4021,29 +4208,29 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="I42" s="1" t="str" cm="1">
         <f t="array" ref="I42">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4060,41 +4247,36 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B43">
-        <v>100</v>
-      </c>
-      <c r="C43">
-        <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>16</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="H43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I43" s="1" t="str" cm="1">
-        <f t="array" ref="I43">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>!!! Processing !!!</v>
-      </c>
-      <c r="J43" s="1" t="str" cm="1">
-        <f t="array" ref="J43">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>!!! Processing !!!</v>
-      </c>
-      <c r="K43" s="1" t="str" cm="1">
-        <f t="array" ref="K43">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>!!! Processing !!!</v>
+        <v>7</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -4102,26 +4284,26 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C44">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="I44" s="1" t="str" cm="1">
         <f t="array" ref="I44">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4141,26 +4323,26 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C45">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="I45" s="1" t="str" cm="1">
         <f t="array" ref="I45">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4177,29 +4359,29 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I46" s="1" t="str" cm="1">
         <f t="array" ref="I46">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4219,30 +4401,30 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C47">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="I47" s="1" t="str" cm="1">
         <f t="array" ref="I47">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>!!! Processing !!!</v>
+        <v>ERROR: Unauthorized Access. Please email contact@octopart.com for assistance.</v>
       </c>
       <c r="J47" s="1" t="str" cm="1">
         <f t="array" ref="J47">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4258,26 +4440,26 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C48">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="I48" s="1" t="str" cm="1">
         <f t="array" ref="I48">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4297,26 +4479,26 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C49">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I49" s="1" t="str" cm="1">
         <f t="array" ref="I49">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4333,33 +4515,33 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="I50" s="1" t="str" cm="1">
         <f t="array" ref="I50">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
-        <v>!!! Processing !!!</v>
+        <v>ERROR: Unauthorized Access. Please email contact@octopart.com for assistance.</v>
       </c>
       <c r="J50" s="1" t="str" cm="1">
         <f t="array" ref="J50">_xll.OCTOPART_DISTRIBUTOR_STOCK(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4372,26 +4554,26 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C51">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>126</v>
@@ -4406,34 +4588,34 @@
       </c>
       <c r="K51" s="1" t="str" cm="1">
         <f t="array" ref="K51">_xll.OCTOPART_DATASHEET_URL(_20210223_dawa_7_0__1[[#This Row],[MPN]])</f>
-        <v>!!! Processing !!!</v>
+        <v>ERROR: Unauthorized Access. Please email contact@octopart.com for assistance.</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="C52">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I52" s="1" t="str" cm="1">
         <f t="array" ref="I52">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4450,29 +4632,29 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C53">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I53" s="1" t="str" cm="1">
         <f t="array" ref="I53">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4489,29 +4671,29 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>100</v>
       </c>
       <c r="C54">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I54" s="1" t="str" cm="1">
         <f t="array" ref="I54">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4528,29 +4710,29 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B55">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C55">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="I55" s="1" t="str" cm="1">
         <f t="array" ref="I55">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4567,29 +4749,29 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56">
+        <v>100</v>
+      </c>
+      <c r="C56">
+        <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
         <v>50</v>
       </c>
-      <c r="C56">
-        <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>50</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="I56" s="1" t="str" cm="1">
         <f t="array" ref="I56">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4606,29 +4788,29 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57">
         <v>100</v>
       </c>
       <c r="C57">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I57" s="1" t="str" cm="1">
         <f t="array" ref="I57">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4645,29 +4827,29 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58">
         <v>100</v>
       </c>
       <c r="C58">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="I58" s="1" t="str" cm="1">
         <f t="array" ref="I58">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4684,26 +4866,26 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59">
         <v>100</v>
       </c>
       <c r="C59">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>126</v>
@@ -4733,19 +4915,19 @@
         <v>100</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>99</v>
+        <v>168</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="I60" s="1" t="str" cm="1">
         <f t="array" ref="I60">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4772,19 +4954,19 @@
         <v>100</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I61" s="1" t="str" cm="1">
         <f t="array" ref="I61">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4811,19 +4993,19 @@
         <v>100</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="I62" s="1" t="str" cm="1">
         <f t="array" ref="I62">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4843,26 +5025,26 @@
         <v>1</v>
       </c>
       <c r="B63">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="C63">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="I63" s="1" t="str" cm="1">
         <f t="array" ref="I63">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4882,26 +5064,26 @@
         <v>1</v>
       </c>
       <c r="B64">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="I64" s="1" t="str" cm="1">
         <f t="array" ref="I64">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4921,26 +5103,26 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C65">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="I65" s="1" t="str" cm="1">
         <f t="array" ref="I65">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4957,29 +5139,29 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C66">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="I66" s="1" t="str" cm="1">
         <f t="array" ref="I66">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -4999,26 +5181,26 @@
         <v>1</v>
       </c>
       <c r="B67">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="I67" s="1" t="str" cm="1">
         <f t="array" ref="I67">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -5038,26 +5220,26 @@
         <v>1</v>
       </c>
       <c r="B68">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="C68">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="I68" s="1" t="str" cm="1">
         <f t="array" ref="I68">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -5077,26 +5259,26 @@
         <v>1</v>
       </c>
       <c r="B69">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C69">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I69" s="1" t="str" cm="1">
         <f t="array" ref="I69">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -5116,26 +5298,26 @@
         <v>1</v>
       </c>
       <c r="B70">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="C70">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>207</v>
+        <v>111</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I70" s="1" t="str" cm="1">
         <f t="array" ref="I70">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
@@ -5155,26 +5337,26 @@
         <v>1</v>
       </c>
       <c r="B71">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C71">
         <f>ROUNDDOWN(_20210223_dawa_7_0__1[[#This Row],[Stock Perso]]/_20210223_dawa_7_0__1[[#This Row],[Qty]],0)</f>
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="I71" s="1" t="str" cm="1">
         <f t="array" ref="I71">_xll.OCTOPART_DISTRIBUTOR_PRICE(_20210223_dawa_7_0__1[[#This Row],[MPN]],,"MOUSER")</f>
